--- a/Projektplanung/Ablaufplan.xlsx
+++ b/Projektplanung/Ablaufplan.xlsx
@@ -1,22 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17329"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28016"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wiela\OneDrive\FH Salzburg\_Master\1. Semester\_IT Projektmanagement\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christopherwieland/RD-Project/Projektplanung/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="23715" windowHeight="9795"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -374,7 +382,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -407,7 +415,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -426,6 +434,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="8">
     <border>
@@ -437,26 +457,26 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -465,7 +485,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -473,22 +493,22 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -497,18 +517,18 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -516,7 +536,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -526,10 +546,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -550,32 +587,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Stand." xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -610,7 +639,7 @@
         <xdr:cNvPr id="29" name="Gerade Verbindung 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -660,7 +689,7 @@
         <xdr:cNvPr id="30" name="Gerade Verbindung 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -696,7 +725,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-Design">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -741,9 +770,9 @@
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -771,31 +800,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -823,23 +835,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1018,272 +1013,272 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AQ72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="M54" sqref="M54"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="AE41" sqref="AE41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="73" customWidth="1"/>
-    <col min="4" max="43" width="4.7109375" customWidth="1"/>
+    <col min="4" max="43" width="4.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:43" x14ac:dyDescent="0.25">
-      <c r="B1" s="7" t="s">
+    <row r="1" spans="2:43" x14ac:dyDescent="0.2">
+      <c r="B1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
-      <c r="X1" s="8"/>
-      <c r="Y1" s="8"/>
-      <c r="Z1" s="8"/>
-      <c r="AA1" s="8"/>
-      <c r="AB1" s="8"/>
-      <c r="AC1" s="8"/>
-      <c r="AD1" s="8"/>
-      <c r="AE1" s="8"/>
-      <c r="AF1" s="8"/>
-      <c r="AG1" s="8"/>
-      <c r="AH1" s="8"/>
-      <c r="AI1" s="8"/>
-      <c r="AJ1" s="8"/>
-      <c r="AK1" s="8"/>
-      <c r="AL1" s="8"/>
-      <c r="AM1" s="8"/>
-      <c r="AN1" s="8"/>
-      <c r="AO1" s="8"/>
-      <c r="AP1" s="8"/>
-      <c r="AQ1" s="9"/>
-    </row>
-    <row r="2" spans="2:43" x14ac:dyDescent="0.25">
-      <c r="B2" s="10"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
-      <c r="U2" s="11"/>
-      <c r="V2" s="11"/>
-      <c r="W2" s="11"/>
-      <c r="X2" s="11"/>
-      <c r="Y2" s="11"/>
-      <c r="Z2" s="11"/>
-      <c r="AA2" s="11"/>
-      <c r="AB2" s="11"/>
-      <c r="AC2" s="11"/>
-      <c r="AD2" s="11"/>
-      <c r="AE2" s="11"/>
-      <c r="AF2" s="11"/>
-      <c r="AG2" s="11"/>
-      <c r="AH2" s="11"/>
-      <c r="AI2" s="11"/>
-      <c r="AJ2" s="11"/>
-      <c r="AK2" s="11"/>
-      <c r="AL2" s="11"/>
-      <c r="AM2" s="11"/>
-      <c r="AN2" s="11"/>
-      <c r="AO2" s="11"/>
-      <c r="AP2" s="11"/>
-      <c r="AQ2" s="12"/>
-    </row>
-    <row r="4" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
+      <c r="Y1" s="15"/>
+      <c r="Z1" s="15"/>
+      <c r="AA1" s="15"/>
+      <c r="AB1" s="15"/>
+      <c r="AC1" s="15"/>
+      <c r="AD1" s="15"/>
+      <c r="AE1" s="15"/>
+      <c r="AF1" s="15"/>
+      <c r="AG1" s="15"/>
+      <c r="AH1" s="15"/>
+      <c r="AI1" s="15"/>
+      <c r="AJ1" s="15"/>
+      <c r="AK1" s="15"/>
+      <c r="AL1" s="15"/>
+      <c r="AM1" s="15"/>
+      <c r="AN1" s="15"/>
+      <c r="AO1" s="15"/>
+      <c r="AP1" s="15"/>
+      <c r="AQ1" s="16"/>
+    </row>
+    <row r="2" spans="2:43" x14ac:dyDescent="0.2">
+      <c r="B2" s="17"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="18"/>
+      <c r="W2" s="18"/>
+      <c r="X2" s="18"/>
+      <c r="Y2" s="18"/>
+      <c r="Z2" s="18"/>
+      <c r="AA2" s="18"/>
+      <c r="AB2" s="18"/>
+      <c r="AC2" s="18"/>
+      <c r="AD2" s="18"/>
+      <c r="AE2" s="18"/>
+      <c r="AF2" s="18"/>
+      <c r="AG2" s="18"/>
+      <c r="AH2" s="18"/>
+      <c r="AI2" s="18"/>
+      <c r="AJ2" s="18"/>
+      <c r="AK2" s="18"/>
+      <c r="AL2" s="18"/>
+      <c r="AM2" s="18"/>
+      <c r="AN2" s="18"/>
+      <c r="AO2" s="18"/>
+      <c r="AP2" s="18"/>
+      <c r="AQ2" s="19"/>
+    </row>
+    <row r="4" spans="2:43" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:43" x14ac:dyDescent="0.25">
-      <c r="D6" s="5" t="s">
+    <row r="6" spans="2:43" x14ac:dyDescent="0.2">
+      <c r="D6" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5" t="s">
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5" t="s">
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5" t="s">
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5" t="s">
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
-      <c r="X6" s="5" t="s">
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="Y6" s="5"/>
-      <c r="Z6" s="5"/>
-      <c r="AA6" s="5"/>
-      <c r="AB6" s="5" t="s">
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="11"/>
+      <c r="AA6" s="11"/>
+      <c r="AB6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="AC6" s="5"/>
-      <c r="AD6" s="5"/>
-      <c r="AE6" s="5"/>
-      <c r="AF6" s="5" t="s">
+      <c r="AC6" s="11"/>
+      <c r="AD6" s="11"/>
+      <c r="AE6" s="11"/>
+      <c r="AF6" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="AG6" s="5"/>
-      <c r="AH6" s="5"/>
-      <c r="AI6" s="5"/>
-      <c r="AJ6" s="5" t="s">
+      <c r="AG6" s="11"/>
+      <c r="AH6" s="11"/>
+      <c r="AI6" s="11"/>
+      <c r="AJ6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="AK6" s="5"/>
-      <c r="AL6" s="5"/>
-      <c r="AM6" s="5"/>
-      <c r="AN6" s="5" t="s">
+      <c r="AK6" s="11"/>
+      <c r="AL6" s="11"/>
+      <c r="AM6" s="11"/>
+      <c r="AN6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="AO6" s="5"/>
-      <c r="AP6" s="5"/>
-      <c r="AQ6" s="5"/>
-    </row>
-    <row r="7" spans="2:43" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
-      <c r="X7" s="5"/>
-      <c r="Y7" s="5"/>
-      <c r="Z7" s="5"/>
-      <c r="AA7" s="5"/>
-      <c r="AB7" s="5"/>
-      <c r="AC7" s="5"/>
-      <c r="AD7" s="5"/>
-      <c r="AE7" s="5"/>
-      <c r="AF7" s="5"/>
-      <c r="AG7" s="5"/>
-      <c r="AH7" s="5"/>
-      <c r="AI7" s="5"/>
-      <c r="AJ7" s="5"/>
-      <c r="AK7" s="5"/>
-      <c r="AL7" s="5"/>
-      <c r="AM7" s="5"/>
-      <c r="AN7" s="5"/>
-      <c r="AO7" s="5"/>
-      <c r="AP7" s="5"/>
-      <c r="AQ7" s="5"/>
-    </row>
-    <row r="8" spans="2:43" x14ac:dyDescent="0.25">
-      <c r="B8" s="6" t="s">
+      <c r="AO6" s="11"/>
+      <c r="AP6" s="11"/>
+      <c r="AQ6" s="11"/>
+    </row>
+    <row r="7" spans="2:43" ht="16" x14ac:dyDescent="0.2">
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="11"/>
+      <c r="Z7" s="11"/>
+      <c r="AA7" s="11"/>
+      <c r="AB7" s="11"/>
+      <c r="AC7" s="11"/>
+      <c r="AD7" s="11"/>
+      <c r="AE7" s="11"/>
+      <c r="AF7" s="11"/>
+      <c r="AG7" s="11"/>
+      <c r="AH7" s="11"/>
+      <c r="AI7" s="11"/>
+      <c r="AJ7" s="11"/>
+      <c r="AK7" s="11"/>
+      <c r="AL7" s="11"/>
+      <c r="AM7" s="11"/>
+      <c r="AN7" s="11"/>
+      <c r="AO7" s="11"/>
+      <c r="AP7" s="11"/>
+      <c r="AQ7" s="11"/>
+    </row>
+    <row r="8" spans="2:43" x14ac:dyDescent="0.2">
+      <c r="B8" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
-      <c r="W8" s="5"/>
-      <c r="X8" s="5"/>
-      <c r="Y8" s="5"/>
-      <c r="Z8" s="5"/>
-      <c r="AA8" s="5"/>
-      <c r="AB8" s="5"/>
-      <c r="AC8" s="5"/>
-      <c r="AD8" s="5"/>
-      <c r="AE8" s="5"/>
-      <c r="AF8" s="5"/>
-      <c r="AG8" s="5"/>
-      <c r="AH8" s="5"/>
-      <c r="AI8" s="5"/>
-      <c r="AJ8" s="5"/>
-      <c r="AK8" s="5"/>
-      <c r="AL8" s="5"/>
-      <c r="AM8" s="5"/>
-      <c r="AN8" s="5"/>
-      <c r="AO8" s="5"/>
-      <c r="AP8" s="5"/>
-      <c r="AQ8" s="5"/>
-    </row>
-    <row r="9" spans="2:43" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="14" t="s">
+      <c r="C8" s="21"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="11"/>
+      <c r="Y8" s="11"/>
+      <c r="Z8" s="11"/>
+      <c r="AA8" s="11"/>
+      <c r="AB8" s="11"/>
+      <c r="AC8" s="11"/>
+      <c r="AD8" s="11"/>
+      <c r="AE8" s="11"/>
+      <c r="AF8" s="11"/>
+      <c r="AG8" s="11"/>
+      <c r="AH8" s="11"/>
+      <c r="AI8" s="11"/>
+      <c r="AJ8" s="11"/>
+      <c r="AK8" s="11"/>
+      <c r="AL8" s="11"/>
+      <c r="AM8" s="11"/>
+      <c r="AN8" s="11"/>
+      <c r="AO8" s="11"/>
+      <c r="AP8" s="11"/>
+      <c r="AQ8" s="11"/>
+    </row>
+    <row r="9" spans="2:43" ht="16" x14ac:dyDescent="0.2">
+      <c r="B9" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -1323,15 +1318,15 @@
       <c r="AP9" s="2"/>
       <c r="AQ9" s="2"/>
     </row>
-    <row r="10" spans="2:43" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="14" t="s">
+    <row r="10" spans="2:43" ht="16" x14ac:dyDescent="0.2">
+      <c r="B10" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -1371,15 +1366,15 @@
       <c r="AP10" s="2"/>
       <c r="AQ10" s="2"/>
     </row>
-    <row r="11" spans="2:43" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="14" t="s">
+    <row r="11" spans="2:43" ht="16" x14ac:dyDescent="0.2">
+      <c r="B11" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -1419,63 +1414,63 @@
       <c r="AP11" s="2"/>
       <c r="AQ11" s="2"/>
     </row>
-    <row r="12" spans="2:43" x14ac:dyDescent="0.25">
-      <c r="B12" s="15" t="s">
+    <row r="12" spans="2:43" x14ac:dyDescent="0.2">
+      <c r="B12" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="5"/>
-      <c r="W12" s="5"/>
-      <c r="X12" s="5"/>
-      <c r="Y12" s="5"/>
-      <c r="Z12" s="5"/>
-      <c r="AA12" s="5"/>
-      <c r="AB12" s="5"/>
-      <c r="AC12" s="5"/>
-      <c r="AD12" s="5"/>
-      <c r="AE12" s="5"/>
-      <c r="AF12" s="5"/>
-      <c r="AG12" s="5"/>
-      <c r="AH12" s="5"/>
-      <c r="AI12" s="5"/>
-      <c r="AJ12" s="5"/>
-      <c r="AK12" s="5"/>
-      <c r="AL12" s="5"/>
-      <c r="AM12" s="5"/>
-      <c r="AN12" s="5"/>
-      <c r="AO12" s="5"/>
-      <c r="AP12" s="5"/>
-      <c r="AQ12" s="5"/>
-    </row>
-    <row r="13" spans="2:43" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="14" t="s">
+      <c r="C12" s="21"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="11"/>
+      <c r="X12" s="11"/>
+      <c r="Y12" s="11"/>
+      <c r="Z12" s="11"/>
+      <c r="AA12" s="11"/>
+      <c r="AB12" s="11"/>
+      <c r="AC12" s="11"/>
+      <c r="AD12" s="11"/>
+      <c r="AE12" s="11"/>
+      <c r="AF12" s="11"/>
+      <c r="AG12" s="11"/>
+      <c r="AH12" s="11"/>
+      <c r="AI12" s="11"/>
+      <c r="AJ12" s="11"/>
+      <c r="AK12" s="11"/>
+      <c r="AL12" s="11"/>
+      <c r="AM12" s="11"/>
+      <c r="AN12" s="11"/>
+      <c r="AO12" s="11"/>
+      <c r="AP12" s="11"/>
+      <c r="AQ12" s="11"/>
+    </row>
+    <row r="13" spans="2:43" ht="16" x14ac:dyDescent="0.2">
+      <c r="B13" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="5" t="s">
         <v>37</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -1513,29 +1508,29 @@
       <c r="AP13" s="2"/>
       <c r="AQ13" s="2"/>
     </row>
-    <row r="14" spans="2:43" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="14" t="s">
+    <row r="14" spans="2:43" ht="16" x14ac:dyDescent="0.2">
+      <c r="B14" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="5" t="s">
         <v>38</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
-      <c r="R14" s="17"/>
-      <c r="S14" s="17"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
       <c r="V14" s="2"/>
@@ -1561,11 +1556,11 @@
       <c r="AP14" s="2"/>
       <c r="AQ14" s="2"/>
     </row>
-    <row r="15" spans="2:43" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="14" t="s">
+    <row r="15" spans="2:43" ht="16" x14ac:dyDescent="0.2">
+      <c r="B15" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="5" t="s">
         <v>39</v>
       </c>
       <c r="D15" s="2"/>
@@ -1584,8 +1579,8 @@
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
-      <c r="T15" s="17"/>
-      <c r="U15" s="17"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
       <c r="V15" s="2"/>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
@@ -1609,11 +1604,11 @@
       <c r="AP15" s="2"/>
       <c r="AQ15" s="2"/>
     </row>
-    <row r="16" spans="2:43" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="14" t="s">
+    <row r="16" spans="2:43" ht="16" x14ac:dyDescent="0.2">
+      <c r="B16" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="5" t="s">
         <v>40</v>
       </c>
       <c r="D16" s="2"/>
@@ -1632,8 +1627,8 @@
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
       <c r="S16" s="2"/>
-      <c r="T16" s="17"/>
-      <c r="U16" s="17"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
       <c r="V16" s="2"/>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
@@ -1657,57 +1652,57 @@
       <c r="AP16" s="2"/>
       <c r="AQ16" s="2"/>
     </row>
-    <row r="17" spans="2:43" x14ac:dyDescent="0.25">
-      <c r="B17" s="15" t="s">
+    <row r="17" spans="2:43" x14ac:dyDescent="0.2">
+      <c r="B17" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="5"/>
-      <c r="W17" s="5"/>
-      <c r="X17" s="5"/>
-      <c r="Y17" s="5"/>
-      <c r="Z17" s="5"/>
-      <c r="AA17" s="5"/>
-      <c r="AB17" s="5"/>
-      <c r="AC17" s="5"/>
-      <c r="AD17" s="5"/>
-      <c r="AE17" s="5"/>
-      <c r="AF17" s="5"/>
-      <c r="AG17" s="5"/>
-      <c r="AH17" s="5"/>
-      <c r="AI17" s="5"/>
-      <c r="AJ17" s="5"/>
-      <c r="AK17" s="5"/>
-      <c r="AL17" s="5"/>
-      <c r="AM17" s="5"/>
-      <c r="AN17" s="5"/>
-      <c r="AO17" s="5"/>
-      <c r="AP17" s="5"/>
-      <c r="AQ17" s="5"/>
-    </row>
-    <row r="18" spans="2:43" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="14" t="s">
+      <c r="C17" s="21"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="11"/>
+      <c r="X17" s="11"/>
+      <c r="Y17" s="11"/>
+      <c r="Z17" s="11"/>
+      <c r="AA17" s="11"/>
+      <c r="AB17" s="11"/>
+      <c r="AC17" s="11"/>
+      <c r="AD17" s="11"/>
+      <c r="AE17" s="11"/>
+      <c r="AF17" s="11"/>
+      <c r="AG17" s="11"/>
+      <c r="AH17" s="11"/>
+      <c r="AI17" s="11"/>
+      <c r="AJ17" s="11"/>
+      <c r="AK17" s="11"/>
+      <c r="AL17" s="11"/>
+      <c r="AM17" s="11"/>
+      <c r="AN17" s="11"/>
+      <c r="AO17" s="11"/>
+      <c r="AP17" s="11"/>
+      <c r="AQ17" s="11"/>
+    </row>
+    <row r="18" spans="2:43" ht="16" x14ac:dyDescent="0.2">
+      <c r="B18" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="5" t="s">
         <v>44</v>
       </c>
       <c r="D18" s="4"/>
@@ -1728,9 +1723,9 @@
       <c r="S18" s="4"/>
       <c r="T18" s="4"/>
       <c r="U18" s="4"/>
-      <c r="V18" s="17"/>
-      <c r="W18" s="17"/>
-      <c r="X18" s="17"/>
+      <c r="V18" s="7"/>
+      <c r="W18" s="7"/>
+      <c r="X18" s="7"/>
       <c r="Y18" s="4"/>
       <c r="Z18" s="4"/>
       <c r="AA18" s="4"/>
@@ -1751,11 +1746,11 @@
       <c r="AP18" s="4"/>
       <c r="AQ18" s="4"/>
     </row>
-    <row r="19" spans="2:43" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="14" t="s">
+    <row r="19" spans="2:43" ht="16" x14ac:dyDescent="0.2">
+      <c r="B19" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="5" t="s">
         <v>45</v>
       </c>
       <c r="D19" s="4"/>
@@ -1778,7 +1773,7 @@
       <c r="U19" s="4"/>
       <c r="V19" s="4"/>
       <c r="W19" s="4"/>
-      <c r="X19" s="17"/>
+      <c r="X19" s="7"/>
       <c r="Y19" s="4"/>
       <c r="Z19" s="4"/>
       <c r="AA19" s="4"/>
@@ -1799,11 +1794,11 @@
       <c r="AP19" s="4"/>
       <c r="AQ19" s="4"/>
     </row>
-    <row r="20" spans="2:43" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="14" t="s">
+    <row r="20" spans="2:43" ht="16" x14ac:dyDescent="0.2">
+      <c r="B20" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="5" t="s">
         <v>40</v>
       </c>
       <c r="D20" s="4"/>
@@ -1826,8 +1821,8 @@
       <c r="U20" s="4"/>
       <c r="V20" s="4"/>
       <c r="W20" s="4"/>
-      <c r="X20" s="17"/>
-      <c r="Y20" s="17"/>
+      <c r="X20" s="7"/>
+      <c r="Y20" s="7"/>
       <c r="Z20" s="4"/>
       <c r="AA20" s="4"/>
       <c r="AB20" s="4"/>
@@ -1847,71 +1842,71 @@
       <c r="AP20" s="4"/>
       <c r="AQ20" s="4"/>
     </row>
-    <row r="21" spans="2:43" x14ac:dyDescent="0.25">
-      <c r="B21" s="15" t="s">
+    <row r="21" spans="2:43" x14ac:dyDescent="0.2">
+      <c r="B21" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
-      <c r="S21" s="5"/>
-      <c r="T21" s="5"/>
-      <c r="U21" s="5"/>
-      <c r="V21" s="5"/>
-      <c r="W21" s="5"/>
-      <c r="X21" s="5"/>
-      <c r="Y21" s="5"/>
-      <c r="Z21" s="5"/>
-      <c r="AA21" s="5"/>
-      <c r="AB21" s="5"/>
-      <c r="AC21" s="5"/>
-      <c r="AD21" s="5"/>
-      <c r="AE21" s="5"/>
-      <c r="AF21" s="5"/>
-      <c r="AG21" s="5"/>
-      <c r="AH21" s="5"/>
-      <c r="AI21" s="5"/>
-      <c r="AJ21" s="5"/>
-      <c r="AK21" s="5"/>
-      <c r="AL21" s="5"/>
-      <c r="AM21" s="5"/>
-      <c r="AN21" s="5"/>
-      <c r="AO21" s="5"/>
-      <c r="AP21" s="5"/>
-      <c r="AQ21" s="5"/>
-    </row>
-    <row r="22" spans="2:43" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="14" t="s">
+      <c r="C21" s="22"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="11"/>
+      <c r="V21" s="11"/>
+      <c r="W21" s="11"/>
+      <c r="X21" s="11"/>
+      <c r="Y21" s="11"/>
+      <c r="Z21" s="11"/>
+      <c r="AA21" s="11"/>
+      <c r="AB21" s="11"/>
+      <c r="AC21" s="11"/>
+      <c r="AD21" s="11"/>
+      <c r="AE21" s="11"/>
+      <c r="AF21" s="11"/>
+      <c r="AG21" s="11"/>
+      <c r="AH21" s="11"/>
+      <c r="AI21" s="11"/>
+      <c r="AJ21" s="11"/>
+      <c r="AK21" s="11"/>
+      <c r="AL21" s="11"/>
+      <c r="AM21" s="11"/>
+      <c r="AN21" s="11"/>
+      <c r="AO21" s="11"/>
+      <c r="AP21" s="11"/>
+      <c r="AQ21" s="11"/>
+    </row>
+    <row r="22" spans="2:43" ht="16" x14ac:dyDescent="0.2">
+      <c r="B22" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="5" t="s">
         <v>49</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
       <c r="P22" s="4"/>
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
@@ -1941,11 +1936,11 @@
       <c r="AP22" s="4"/>
       <c r="AQ22" s="4"/>
     </row>
-    <row r="23" spans="2:43" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="14" t="s">
+    <row r="23" spans="2:43" ht="16" x14ac:dyDescent="0.2">
+      <c r="B23" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="5" t="s">
         <v>50</v>
       </c>
       <c r="D23" s="4"/>
@@ -1966,8 +1961,8 @@
       <c r="S23" s="4"/>
       <c r="T23" s="4"/>
       <c r="U23" s="4"/>
-      <c r="V23" s="17"/>
-      <c r="W23" s="17"/>
+      <c r="V23" s="7"/>
+      <c r="W23" s="7"/>
       <c r="X23" s="4"/>
       <c r="Y23" s="4"/>
       <c r="Z23" s="4"/>
@@ -1989,11 +1984,11 @@
       <c r="AP23" s="4"/>
       <c r="AQ23" s="4"/>
     </row>
-    <row r="24" spans="2:43" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B24" s="14" t="s">
+    <row r="24" spans="2:43" ht="16" x14ac:dyDescent="0.2">
+      <c r="B24" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="5" t="s">
         <v>40</v>
       </c>
       <c r="D24" s="4"/>
@@ -2015,7 +2010,7 @@
       <c r="T24" s="4"/>
       <c r="U24" s="4"/>
       <c r="V24" s="4"/>
-      <c r="W24" s="17"/>
+      <c r="W24" s="7"/>
       <c r="X24" s="4"/>
       <c r="Y24" s="4"/>
       <c r="Z24" s="4"/>
@@ -2037,57 +2032,57 @@
       <c r="AP24" s="4"/>
       <c r="AQ24" s="4"/>
     </row>
-    <row r="25" spans="2:43" x14ac:dyDescent="0.25">
-      <c r="B25" s="15" t="s">
+    <row r="25" spans="2:43" x14ac:dyDescent="0.2">
+      <c r="B25" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="15"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="5"/>
-      <c r="S25" s="5"/>
-      <c r="T25" s="5"/>
-      <c r="U25" s="5"/>
-      <c r="V25" s="5"/>
-      <c r="W25" s="5"/>
-      <c r="X25" s="5"/>
-      <c r="Y25" s="5"/>
-      <c r="Z25" s="5"/>
-      <c r="AA25" s="5"/>
-      <c r="AB25" s="5"/>
-      <c r="AC25" s="5"/>
-      <c r="AD25" s="5"/>
-      <c r="AE25" s="5"/>
-      <c r="AF25" s="5"/>
-      <c r="AG25" s="5"/>
-      <c r="AH25" s="5"/>
-      <c r="AI25" s="5"/>
-      <c r="AJ25" s="5"/>
-      <c r="AK25" s="5"/>
-      <c r="AL25" s="5"/>
-      <c r="AM25" s="5"/>
-      <c r="AN25" s="5"/>
-      <c r="AO25" s="5"/>
-      <c r="AP25" s="5"/>
-      <c r="AQ25" s="5"/>
-    </row>
-    <row r="26" spans="2:43" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B26" s="14" t="s">
+      <c r="C25" s="23"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="11"/>
+      <c r="S25" s="11"/>
+      <c r="T25" s="11"/>
+      <c r="U25" s="11"/>
+      <c r="V25" s="11"/>
+      <c r="W25" s="11"/>
+      <c r="X25" s="11"/>
+      <c r="Y25" s="11"/>
+      <c r="Z25" s="11"/>
+      <c r="AA25" s="11"/>
+      <c r="AB25" s="11"/>
+      <c r="AC25" s="11"/>
+      <c r="AD25" s="11"/>
+      <c r="AE25" s="11"/>
+      <c r="AF25" s="11"/>
+      <c r="AG25" s="11"/>
+      <c r="AH25" s="11"/>
+      <c r="AI25" s="11"/>
+      <c r="AJ25" s="11"/>
+      <c r="AK25" s="11"/>
+      <c r="AL25" s="11"/>
+      <c r="AM25" s="11"/>
+      <c r="AN25" s="11"/>
+      <c r="AO25" s="11"/>
+      <c r="AP25" s="11"/>
+      <c r="AQ25" s="11"/>
+    </row>
+    <row r="26" spans="2:43" ht="16" x14ac:dyDescent="0.2">
+      <c r="B26" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="5" t="s">
         <v>56</v>
       </c>
       <c r="D26" s="4"/>
@@ -2108,8 +2103,8 @@
       <c r="S26" s="4"/>
       <c r="T26" s="4"/>
       <c r="U26" s="4"/>
-      <c r="V26" s="17"/>
-      <c r="W26" s="17"/>
+      <c r="V26" s="7"/>
+      <c r="W26" s="7"/>
       <c r="X26" s="4"/>
       <c r="Y26" s="4"/>
       <c r="Z26" s="4"/>
@@ -2131,11 +2126,11 @@
       <c r="AP26" s="4"/>
       <c r="AQ26" s="4"/>
     </row>
-    <row r="27" spans="2:43" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B27" s="14" t="s">
+    <row r="27" spans="2:43" ht="16" x14ac:dyDescent="0.2">
+      <c r="B27" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C27" s="5" t="s">
         <v>57</v>
       </c>
       <c r="D27" s="4"/>
@@ -2157,8 +2152,8 @@
       <c r="T27" s="4"/>
       <c r="U27" s="4"/>
       <c r="V27" s="4"/>
-      <c r="W27" s="17"/>
-      <c r="X27" s="17"/>
+      <c r="W27" s="7"/>
+      <c r="X27" s="7"/>
       <c r="Y27" s="4"/>
       <c r="Z27" s="4"/>
       <c r="AA27" s="4"/>
@@ -2179,11 +2174,11 @@
       <c r="AP27" s="4"/>
       <c r="AQ27" s="4"/>
     </row>
-    <row r="28" spans="2:43" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="14" t="s">
+    <row r="28" spans="2:43" ht="16" x14ac:dyDescent="0.2">
+      <c r="B28" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="C28" s="5" t="s">
         <v>58</v>
       </c>
       <c r="D28" s="4"/>
@@ -2206,8 +2201,8 @@
       <c r="U28" s="4"/>
       <c r="V28" s="4"/>
       <c r="W28" s="4"/>
-      <c r="X28" s="17"/>
-      <c r="Y28" s="17"/>
+      <c r="X28" s="7"/>
+      <c r="Y28" s="7"/>
       <c r="Z28" s="4"/>
       <c r="AA28" s="4"/>
       <c r="AB28" s="4"/>
@@ -2227,11 +2222,11 @@
       <c r="AP28" s="4"/>
       <c r="AQ28" s="4"/>
     </row>
-    <row r="29" spans="2:43" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B29" s="14" t="s">
+    <row r="29" spans="2:43" ht="16" x14ac:dyDescent="0.2">
+      <c r="B29" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="C29" s="5" t="s">
         <v>59</v>
       </c>
       <c r="D29" s="4"/>
@@ -2255,7 +2250,7 @@
       <c r="V29" s="4"/>
       <c r="W29" s="4"/>
       <c r="X29" s="4"/>
-      <c r="Y29" s="17"/>
+      <c r="Y29" s="7"/>
       <c r="Z29" s="4"/>
       <c r="AA29" s="4"/>
       <c r="AB29" s="4"/>
@@ -2275,11 +2270,11 @@
       <c r="AP29" s="4"/>
       <c r="AQ29" s="4"/>
     </row>
-    <row r="30" spans="2:43" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B30" s="14" t="s">
+    <row r="30" spans="2:43" ht="16" x14ac:dyDescent="0.2">
+      <c r="B30" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C30" s="5" t="s">
         <v>40</v>
       </c>
       <c r="D30" s="4"/>
@@ -2303,7 +2298,7 @@
       <c r="V30" s="4"/>
       <c r="W30" s="4"/>
       <c r="X30" s="4"/>
-      <c r="Y30" s="17"/>
+      <c r="Y30" s="7"/>
       <c r="Z30" s="4"/>
       <c r="AA30" s="4"/>
       <c r="AB30" s="4"/>
@@ -2323,57 +2318,57 @@
       <c r="AP30" s="4"/>
       <c r="AQ30" s="4"/>
     </row>
-    <row r="31" spans="2:43" x14ac:dyDescent="0.25">
-      <c r="B31" s="15" t="s">
+    <row r="31" spans="2:43" x14ac:dyDescent="0.2">
+      <c r="B31" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="15"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
-      <c r="N31" s="5"/>
-      <c r="O31" s="5"/>
-      <c r="P31" s="5"/>
-      <c r="Q31" s="5"/>
-      <c r="R31" s="5"/>
-      <c r="S31" s="5"/>
-      <c r="T31" s="5"/>
-      <c r="U31" s="5"/>
-      <c r="V31" s="5"/>
-      <c r="W31" s="5"/>
-      <c r="X31" s="5"/>
-      <c r="Y31" s="5"/>
-      <c r="Z31" s="5"/>
-      <c r="AA31" s="5"/>
-      <c r="AB31" s="5"/>
-      <c r="AC31" s="5"/>
-      <c r="AD31" s="5"/>
-      <c r="AE31" s="5"/>
-      <c r="AF31" s="5"/>
-      <c r="AG31" s="5"/>
-      <c r="AH31" s="5"/>
-      <c r="AI31" s="5"/>
-      <c r="AJ31" s="5"/>
-      <c r="AK31" s="5"/>
-      <c r="AL31" s="5"/>
-      <c r="AM31" s="5"/>
-      <c r="AN31" s="5"/>
-      <c r="AO31" s="5"/>
-      <c r="AP31" s="5"/>
-      <c r="AQ31" s="5"/>
-    </row>
-    <row r="32" spans="2:43" x14ac:dyDescent="0.25">
-      <c r="B32" s="16" t="s">
+      <c r="C31" s="13"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="11"/>
+      <c r="S31" s="11"/>
+      <c r="T31" s="11"/>
+      <c r="U31" s="11"/>
+      <c r="V31" s="11"/>
+      <c r="W31" s="11"/>
+      <c r="X31" s="11"/>
+      <c r="Y31" s="11"/>
+      <c r="Z31" s="11"/>
+      <c r="AA31" s="11"/>
+      <c r="AB31" s="11"/>
+      <c r="AC31" s="11"/>
+      <c r="AD31" s="11"/>
+      <c r="AE31" s="11"/>
+      <c r="AF31" s="11"/>
+      <c r="AG31" s="11"/>
+      <c r="AH31" s="11"/>
+      <c r="AI31" s="11"/>
+      <c r="AJ31" s="11"/>
+      <c r="AK31" s="11"/>
+      <c r="AL31" s="11"/>
+      <c r="AM31" s="11"/>
+      <c r="AN31" s="11"/>
+      <c r="AO31" s="11"/>
+      <c r="AP31" s="11"/>
+      <c r="AQ31" s="11"/>
+    </row>
+    <row r="32" spans="2:43" x14ac:dyDescent="0.2">
+      <c r="B32" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C32" s="16" t="s">
+      <c r="C32" s="6" t="s">
         <v>83</v>
       </c>
       <c r="D32" s="3"/>
@@ -2408,20 +2403,20 @@
       <c r="AG32" s="3"/>
       <c r="AH32" s="3"/>
       <c r="AI32" s="3"/>
-      <c r="AJ32" s="19"/>
-      <c r="AK32" s="19"/>
-      <c r="AL32" s="19"/>
-      <c r="AM32" s="19"/>
+      <c r="AJ32" s="9"/>
+      <c r="AK32" s="9"/>
+      <c r="AL32" s="9"/>
+      <c r="AM32" s="9"/>
       <c r="AN32" s="3"/>
       <c r="AO32" s="3"/>
       <c r="AP32" s="3"/>
       <c r="AQ32" s="3"/>
     </row>
-    <row r="33" spans="2:43" x14ac:dyDescent="0.25">
-      <c r="B33" s="16" t="s">
+    <row r="33" spans="2:43" x14ac:dyDescent="0.2">
+      <c r="B33" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C33" s="16" t="s">
+      <c r="C33" s="6" t="s">
         <v>84</v>
       </c>
       <c r="D33" s="3"/>
@@ -2458,18 +2453,18 @@
       <c r="AI33" s="3"/>
       <c r="AJ33" s="3"/>
       <c r="AK33" s="3"/>
-      <c r="AL33" s="19"/>
-      <c r="AM33" s="19"/>
-      <c r="AN33" s="19"/>
-      <c r="AO33" s="19"/>
+      <c r="AL33" s="9"/>
+      <c r="AM33" s="9"/>
+      <c r="AN33" s="9"/>
+      <c r="AO33" s="9"/>
       <c r="AP33" s="3"/>
       <c r="AQ33" s="3"/>
     </row>
-    <row r="34" spans="2:43" x14ac:dyDescent="0.25">
-      <c r="B34" s="16" t="s">
+    <row r="34" spans="2:43" x14ac:dyDescent="0.2">
+      <c r="B34" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C34" s="16" t="s">
+      <c r="C34" s="6" t="s">
         <v>40</v>
       </c>
       <c r="D34" s="3"/>
@@ -2508,68 +2503,68 @@
       <c r="AK34" s="3"/>
       <c r="AL34" s="3"/>
       <c r="AM34" s="3"/>
-      <c r="AN34" s="19"/>
-      <c r="AO34" s="19"/>
+      <c r="AN34" s="9"/>
+      <c r="AO34" s="9"/>
       <c r="AP34" s="3"/>
       <c r="AQ34" s="3"/>
     </row>
-    <row r="35" spans="2:43" x14ac:dyDescent="0.25">
-      <c r="B35" s="15" t="s">
+    <row r="35" spans="2:43" x14ac:dyDescent="0.2">
+      <c r="B35" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="15"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="5"/>
-      <c r="M35" s="5"/>
-      <c r="N35" s="5"/>
-      <c r="O35" s="5"/>
-      <c r="P35" s="5"/>
-      <c r="Q35" s="5"/>
-      <c r="R35" s="5"/>
-      <c r="S35" s="5"/>
-      <c r="T35" s="5"/>
-      <c r="U35" s="5"/>
-      <c r="V35" s="5"/>
-      <c r="W35" s="5"/>
-      <c r="X35" s="5"/>
-      <c r="Y35" s="5"/>
-      <c r="Z35" s="5"/>
-      <c r="AA35" s="5"/>
-      <c r="AB35" s="5"/>
-      <c r="AC35" s="5"/>
-      <c r="AD35" s="5"/>
-      <c r="AE35" s="5"/>
-      <c r="AF35" s="5"/>
-      <c r="AG35" s="5"/>
-      <c r="AH35" s="5"/>
-      <c r="AI35" s="5"/>
-      <c r="AJ35" s="5"/>
-      <c r="AK35" s="5"/>
-      <c r="AL35" s="5"/>
-      <c r="AM35" s="5"/>
-      <c r="AN35" s="5"/>
-      <c r="AO35" s="5"/>
-      <c r="AP35" s="5"/>
-      <c r="AQ35" s="5"/>
-    </row>
-    <row r="36" spans="2:43" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B36" s="14" t="s">
+      <c r="C35" s="22"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="11"/>
+      <c r="O35" s="11"/>
+      <c r="P35" s="11"/>
+      <c r="Q35" s="11"/>
+      <c r="R35" s="11"/>
+      <c r="S35" s="11"/>
+      <c r="T35" s="11"/>
+      <c r="U35" s="11"/>
+      <c r="V35" s="11"/>
+      <c r="W35" s="11"/>
+      <c r="X35" s="11"/>
+      <c r="Y35" s="11"/>
+      <c r="Z35" s="11"/>
+      <c r="AA35" s="11"/>
+      <c r="AB35" s="11"/>
+      <c r="AC35" s="11"/>
+      <c r="AD35" s="11"/>
+      <c r="AE35" s="11"/>
+      <c r="AF35" s="11"/>
+      <c r="AG35" s="11"/>
+      <c r="AH35" s="11"/>
+      <c r="AI35" s="11"/>
+      <c r="AJ35" s="11"/>
+      <c r="AK35" s="11"/>
+      <c r="AL35" s="11"/>
+      <c r="AM35" s="11"/>
+      <c r="AN35" s="11"/>
+      <c r="AO35" s="11"/>
+      <c r="AP35" s="11"/>
+      <c r="AQ35" s="11"/>
+    </row>
+    <row r="36" spans="2:43" ht="16" x14ac:dyDescent="0.2">
+      <c r="B36" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C36" s="14" t="s">
+      <c r="C36" s="5" t="s">
         <v>63</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
@@ -2607,23 +2602,23 @@
       <c r="AP36" s="4"/>
       <c r="AQ36" s="4"/>
     </row>
-    <row r="37" spans="2:43" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B37" s="14" t="s">
+    <row r="37" spans="2:43" ht="16" x14ac:dyDescent="0.2">
+      <c r="B37" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C37" s="18" t="s">
+      <c r="C37" s="8" t="s">
         <v>64</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="17"/>
-      <c r="J37" s="17"/>
-      <c r="K37" s="17"/>
-      <c r="L37" s="17"/>
-      <c r="M37" s="17"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
       <c r="N37" s="4"/>
       <c r="O37" s="4"/>
       <c r="P37" s="4"/>
@@ -2655,11 +2650,11 @@
       <c r="AP37" s="4"/>
       <c r="AQ37" s="4"/>
     </row>
-    <row r="38" spans="2:43" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B38" s="14" t="s">
+    <row r="38" spans="2:43" ht="16" x14ac:dyDescent="0.2">
+      <c r="B38" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C38" s="14" t="s">
+      <c r="C38" s="5" t="s">
         <v>40</v>
       </c>
       <c r="D38" s="4"/>
@@ -2670,8 +2665,8 @@
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
-      <c r="L38" s="17"/>
-      <c r="M38" s="17"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
       <c r="N38" s="4"/>
       <c r="O38" s="4"/>
       <c r="P38" s="4"/>
@@ -2703,57 +2698,57 @@
       <c r="AP38" s="4"/>
       <c r="AQ38" s="4"/>
     </row>
-    <row r="39" spans="2:43" x14ac:dyDescent="0.25">
-      <c r="B39" s="15" t="s">
+    <row r="39" spans="2:43" x14ac:dyDescent="0.2">
+      <c r="B39" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C39" s="15"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-      <c r="K39" s="5"/>
-      <c r="L39" s="5"/>
-      <c r="M39" s="5"/>
-      <c r="N39" s="5"/>
-      <c r="O39" s="5"/>
-      <c r="P39" s="5"/>
-      <c r="Q39" s="5"/>
-      <c r="R39" s="5"/>
-      <c r="S39" s="5"/>
-      <c r="T39" s="5"/>
-      <c r="U39" s="5"/>
-      <c r="V39" s="5"/>
-      <c r="W39" s="5"/>
-      <c r="X39" s="5"/>
-      <c r="Y39" s="5"/>
-      <c r="Z39" s="5"/>
-      <c r="AA39" s="5"/>
-      <c r="AB39" s="5"/>
-      <c r="AC39" s="5"/>
-      <c r="AD39" s="5"/>
-      <c r="AE39" s="5"/>
-      <c r="AF39" s="5"/>
-      <c r="AG39" s="5"/>
-      <c r="AH39" s="5"/>
-      <c r="AI39" s="5"/>
-      <c r="AJ39" s="5"/>
-      <c r="AK39" s="5"/>
-      <c r="AL39" s="5"/>
-      <c r="AM39" s="5"/>
-      <c r="AN39" s="5"/>
-      <c r="AO39" s="5"/>
-      <c r="AP39" s="5"/>
-      <c r="AQ39" s="5"/>
-    </row>
-    <row r="40" spans="2:43" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="14" t="s">
+      <c r="C39" s="23"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
+      <c r="N39" s="11"/>
+      <c r="O39" s="11"/>
+      <c r="P39" s="11"/>
+      <c r="Q39" s="11"/>
+      <c r="R39" s="11"/>
+      <c r="S39" s="11"/>
+      <c r="T39" s="11"/>
+      <c r="U39" s="11"/>
+      <c r="V39" s="11"/>
+      <c r="W39" s="11"/>
+      <c r="X39" s="11"/>
+      <c r="Y39" s="11"/>
+      <c r="Z39" s="11"/>
+      <c r="AA39" s="11"/>
+      <c r="AB39" s="11"/>
+      <c r="AC39" s="11"/>
+      <c r="AD39" s="11"/>
+      <c r="AE39" s="11"/>
+      <c r="AF39" s="11"/>
+      <c r="AG39" s="11"/>
+      <c r="AH39" s="11"/>
+      <c r="AI39" s="11"/>
+      <c r="AJ39" s="11"/>
+      <c r="AK39" s="11"/>
+      <c r="AL39" s="11"/>
+      <c r="AM39" s="11"/>
+      <c r="AN39" s="11"/>
+      <c r="AO39" s="11"/>
+      <c r="AP39" s="11"/>
+      <c r="AQ39" s="11"/>
+    </row>
+    <row r="40" spans="2:43" ht="16" x14ac:dyDescent="0.2">
+      <c r="B40" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C40" s="14" t="s">
+      <c r="C40" s="5" t="s">
         <v>68</v>
       </c>
       <c r="D40" s="4"/>
@@ -2778,9 +2773,9 @@
       <c r="W40" s="4"/>
       <c r="X40" s="4"/>
       <c r="Y40" s="4"/>
-      <c r="Z40" s="17"/>
-      <c r="AA40" s="17"/>
-      <c r="AB40" s="17"/>
+      <c r="Z40" s="7"/>
+      <c r="AA40" s="7"/>
+      <c r="AB40" s="7"/>
       <c r="AC40" s="4"/>
       <c r="AD40" s="4"/>
       <c r="AE40" s="4"/>
@@ -2797,11 +2792,11 @@
       <c r="AP40" s="4"/>
       <c r="AQ40" s="4"/>
     </row>
-    <row r="41" spans="2:43" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B41" s="14" t="s">
+    <row r="41" spans="2:43" ht="16" x14ac:dyDescent="0.2">
+      <c r="B41" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C41" s="14" t="s">
+      <c r="C41" s="5" t="s">
         <v>69</v>
       </c>
       <c r="D41" s="4"/>
@@ -2828,7 +2823,7 @@
       <c r="Y41" s="4"/>
       <c r="Z41" s="4"/>
       <c r="AA41" s="4"/>
-      <c r="AB41" s="17"/>
+      <c r="AB41" s="7"/>
       <c r="AC41" s="4"/>
       <c r="AD41" s="4"/>
       <c r="AE41" s="4"/>
@@ -2845,11 +2840,11 @@
       <c r="AP41" s="4"/>
       <c r="AQ41" s="4"/>
     </row>
-    <row r="42" spans="2:43" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B42" s="14" t="s">
+    <row r="42" spans="2:43" ht="16" x14ac:dyDescent="0.2">
+      <c r="B42" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C42" s="14" t="s">
+      <c r="C42" s="5" t="s">
         <v>40</v>
       </c>
       <c r="D42" s="4"/>
@@ -2876,7 +2871,7 @@
       <c r="Y42" s="4"/>
       <c r="Z42" s="4"/>
       <c r="AA42" s="4"/>
-      <c r="AB42" s="17"/>
+      <c r="AB42" s="7"/>
       <c r="AC42" s="4"/>
       <c r="AD42" s="4"/>
       <c r="AE42" s="4"/>
@@ -2893,63 +2888,63 @@
       <c r="AP42" s="4"/>
       <c r="AQ42" s="4"/>
     </row>
-    <row r="43" spans="2:43" x14ac:dyDescent="0.25">
-      <c r="B43" s="15" t="s">
+    <row r="43" spans="2:43" x14ac:dyDescent="0.2">
+      <c r="B43" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C43" s="15"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="5"/>
-      <c r="K43" s="5"/>
-      <c r="L43" s="5"/>
-      <c r="M43" s="5"/>
-      <c r="N43" s="5"/>
-      <c r="O43" s="5"/>
-      <c r="P43" s="5"/>
-      <c r="Q43" s="5"/>
-      <c r="R43" s="5"/>
-      <c r="S43" s="5"/>
-      <c r="T43" s="5"/>
-      <c r="U43" s="5"/>
-      <c r="V43" s="5"/>
-      <c r="W43" s="5"/>
-      <c r="X43" s="5"/>
-      <c r="Y43" s="5"/>
-      <c r="Z43" s="5"/>
-      <c r="AA43" s="5"/>
-      <c r="AB43" s="5"/>
-      <c r="AC43" s="5"/>
-      <c r="AD43" s="5"/>
-      <c r="AE43" s="5"/>
-      <c r="AF43" s="5"/>
-      <c r="AG43" s="5"/>
-      <c r="AH43" s="5"/>
-      <c r="AI43" s="5"/>
-      <c r="AJ43" s="5"/>
-      <c r="AK43" s="5"/>
-      <c r="AL43" s="5"/>
-      <c r="AM43" s="5"/>
-      <c r="AN43" s="5"/>
-      <c r="AO43" s="5"/>
-      <c r="AP43" s="5"/>
-      <c r="AQ43" s="5"/>
-    </row>
-    <row r="44" spans="2:43" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B44" s="14" t="s">
+      <c r="C43" s="22"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="11"/>
+      <c r="M43" s="11"/>
+      <c r="N43" s="11"/>
+      <c r="O43" s="11"/>
+      <c r="P43" s="11"/>
+      <c r="Q43" s="11"/>
+      <c r="R43" s="11"/>
+      <c r="S43" s="11"/>
+      <c r="T43" s="11"/>
+      <c r="U43" s="11"/>
+      <c r="V43" s="11"/>
+      <c r="W43" s="11"/>
+      <c r="X43" s="11"/>
+      <c r="Y43" s="11"/>
+      <c r="Z43" s="11"/>
+      <c r="AA43" s="11"/>
+      <c r="AB43" s="11"/>
+      <c r="AC43" s="11"/>
+      <c r="AD43" s="11"/>
+      <c r="AE43" s="11"/>
+      <c r="AF43" s="11"/>
+      <c r="AG43" s="11"/>
+      <c r="AH43" s="11"/>
+      <c r="AI43" s="11"/>
+      <c r="AJ43" s="11"/>
+      <c r="AK43" s="11"/>
+      <c r="AL43" s="11"/>
+      <c r="AM43" s="11"/>
+      <c r="AN43" s="11"/>
+      <c r="AO43" s="11"/>
+      <c r="AP43" s="11"/>
+      <c r="AQ43" s="11"/>
+    </row>
+    <row r="44" spans="2:43" ht="16" x14ac:dyDescent="0.2">
+      <c r="B44" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C44" s="14" t="s">
+      <c r="C44" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="17"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
@@ -2987,11 +2982,11 @@
       <c r="AP44" s="4"/>
       <c r="AQ44" s="4"/>
     </row>
-    <row r="45" spans="2:43" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B45" s="14" t="s">
+    <row r="45" spans="2:43" ht="16" x14ac:dyDescent="0.2">
+      <c r="B45" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C45" s="14" t="s">
+      <c r="C45" s="5" t="s">
         <v>74</v>
       </c>
       <c r="D45" s="4"/>
@@ -3012,8 +3007,8 @@
       <c r="S45" s="4"/>
       <c r="T45" s="4"/>
       <c r="U45" s="4"/>
-      <c r="V45" s="17"/>
-      <c r="W45" s="17"/>
+      <c r="V45" s="7"/>
+      <c r="W45" s="7"/>
       <c r="X45" s="4"/>
       <c r="Y45" s="4"/>
       <c r="Z45" s="4"/>
@@ -3035,11 +3030,11 @@
       <c r="AP45" s="4"/>
       <c r="AQ45" s="4"/>
     </row>
-    <row r="46" spans="2:43" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B46" s="14" t="s">
+    <row r="46" spans="2:43" ht="16" x14ac:dyDescent="0.2">
+      <c r="B46" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C46" s="14" t="s">
+      <c r="C46" s="5" t="s">
         <v>40</v>
       </c>
       <c r="D46" s="4"/>
@@ -3060,8 +3055,8 @@
       <c r="S46" s="4"/>
       <c r="T46" s="4"/>
       <c r="U46" s="4"/>
-      <c r="V46" s="17"/>
-      <c r="W46" s="17"/>
+      <c r="V46" s="7"/>
+      <c r="W46" s="7"/>
       <c r="X46" s="4"/>
       <c r="Y46" s="4"/>
       <c r="Z46" s="4"/>
@@ -3083,57 +3078,57 @@
       <c r="AP46" s="4"/>
       <c r="AQ46" s="4"/>
     </row>
-    <row r="47" spans="2:43" x14ac:dyDescent="0.25">
-      <c r="B47" s="15" t="s">
+    <row r="47" spans="2:43" x14ac:dyDescent="0.2">
+      <c r="B47" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C47" s="15"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
-      <c r="J47" s="5"/>
-      <c r="K47" s="5"/>
-      <c r="L47" s="5"/>
-      <c r="M47" s="5"/>
-      <c r="N47" s="5"/>
-      <c r="O47" s="5"/>
-      <c r="P47" s="5"/>
-      <c r="Q47" s="5"/>
-      <c r="R47" s="5"/>
-      <c r="S47" s="5"/>
-      <c r="T47" s="5"/>
-      <c r="U47" s="5"/>
-      <c r="V47" s="5"/>
-      <c r="W47" s="5"/>
-      <c r="X47" s="5"/>
-      <c r="Y47" s="5"/>
-      <c r="Z47" s="5"/>
-      <c r="AA47" s="5"/>
-      <c r="AB47" s="5"/>
-      <c r="AC47" s="5"/>
-      <c r="AD47" s="5"/>
-      <c r="AE47" s="5"/>
-      <c r="AF47" s="5"/>
-      <c r="AG47" s="5"/>
-      <c r="AH47" s="5"/>
-      <c r="AI47" s="5"/>
-      <c r="AJ47" s="5"/>
-      <c r="AK47" s="5"/>
-      <c r="AL47" s="5"/>
-      <c r="AM47" s="5"/>
-      <c r="AN47" s="5"/>
-      <c r="AO47" s="5"/>
-      <c r="AP47" s="5"/>
-      <c r="AQ47" s="5"/>
-    </row>
-    <row r="48" spans="2:43" x14ac:dyDescent="0.25">
-      <c r="B48" s="16" t="s">
+      <c r="C47" s="23"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="11"/>
+      <c r="M47" s="11"/>
+      <c r="N47" s="11"/>
+      <c r="O47" s="11"/>
+      <c r="P47" s="11"/>
+      <c r="Q47" s="11"/>
+      <c r="R47" s="11"/>
+      <c r="S47" s="11"/>
+      <c r="T47" s="11"/>
+      <c r="U47" s="11"/>
+      <c r="V47" s="11"/>
+      <c r="W47" s="11"/>
+      <c r="X47" s="11"/>
+      <c r="Y47" s="11"/>
+      <c r="Z47" s="11"/>
+      <c r="AA47" s="11"/>
+      <c r="AB47" s="11"/>
+      <c r="AC47" s="11"/>
+      <c r="AD47" s="11"/>
+      <c r="AE47" s="11"/>
+      <c r="AF47" s="11"/>
+      <c r="AG47" s="11"/>
+      <c r="AH47" s="11"/>
+      <c r="AI47" s="11"/>
+      <c r="AJ47" s="11"/>
+      <c r="AK47" s="11"/>
+      <c r="AL47" s="11"/>
+      <c r="AM47" s="11"/>
+      <c r="AN47" s="11"/>
+      <c r="AO47" s="11"/>
+      <c r="AP47" s="11"/>
+      <c r="AQ47" s="11"/>
+    </row>
+    <row r="48" spans="2:43" x14ac:dyDescent="0.2">
+      <c r="B48" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C48" s="16" t="s">
+      <c r="C48" s="6" t="s">
         <v>78</v>
       </c>
       <c r="D48" s="3"/>
@@ -3161,12 +3156,12 @@
       <c r="Z48" s="3"/>
       <c r="AA48" s="3"/>
       <c r="AB48" s="3"/>
-      <c r="AC48" s="19"/>
-      <c r="AD48" s="19"/>
-      <c r="AE48" s="19"/>
-      <c r="AF48" s="19"/>
-      <c r="AG48" s="19"/>
-      <c r="AH48" s="19"/>
+      <c r="AC48" s="9"/>
+      <c r="AD48" s="9"/>
+      <c r="AE48" s="9"/>
+      <c r="AF48" s="9"/>
+      <c r="AG48" s="9"/>
+      <c r="AH48" s="9"/>
       <c r="AI48" s="3"/>
       <c r="AJ48" s="3"/>
       <c r="AK48" s="3"/>
@@ -3177,11 +3172,11 @@
       <c r="AP48" s="3"/>
       <c r="AQ48" s="3"/>
     </row>
-    <row r="49" spans="2:43" x14ac:dyDescent="0.25">
-      <c r="B49" s="16" t="s">
+    <row r="49" spans="2:43" x14ac:dyDescent="0.2">
+      <c r="B49" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C49" s="16" t="s">
+      <c r="C49" s="6" t="s">
         <v>79</v>
       </c>
       <c r="D49" s="3"/>
@@ -3213,9 +3208,9 @@
       <c r="AD49" s="3"/>
       <c r="AE49" s="3"/>
       <c r="AF49" s="3"/>
-      <c r="AG49" s="19"/>
-      <c r="AH49" s="19"/>
-      <c r="AI49" s="19"/>
+      <c r="AG49" s="9"/>
+      <c r="AH49" s="9"/>
+      <c r="AI49" s="9"/>
       <c r="AJ49" s="3"/>
       <c r="AK49" s="3"/>
       <c r="AL49" s="3"/>
@@ -3225,11 +3220,11 @@
       <c r="AP49" s="3"/>
       <c r="AQ49" s="3"/>
     </row>
-    <row r="50" spans="2:43" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B50" s="16" t="s">
+    <row r="50" spans="2:43" ht="16" x14ac:dyDescent="0.2">
+      <c r="B50" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C50" s="14" t="s">
+      <c r="C50" s="5" t="s">
         <v>40</v>
       </c>
       <c r="D50" s="3"/>
@@ -3262,8 +3257,8 @@
       <c r="AE50" s="3"/>
       <c r="AF50" s="3"/>
       <c r="AG50" s="3"/>
-      <c r="AH50" s="19"/>
-      <c r="AI50" s="19"/>
+      <c r="AH50" s="9"/>
+      <c r="AI50" s="9"/>
       <c r="AJ50" s="3"/>
       <c r="AK50" s="3"/>
       <c r="AL50" s="3"/>
@@ -3273,62 +3268,62 @@
       <c r="AP50" s="3"/>
       <c r="AQ50" s="3"/>
     </row>
-    <row r="51" spans="2:43" x14ac:dyDescent="0.25">
-      <c r="B51" s="15" t="s">
+    <row r="51" spans="2:43" x14ac:dyDescent="0.2">
+      <c r="B51" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C51" s="15"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
-      <c r="H51" s="5"/>
-      <c r="I51" s="5"/>
-      <c r="J51" s="5"/>
-      <c r="K51" s="5"/>
-      <c r="L51" s="5"/>
-      <c r="M51" s="5"/>
-      <c r="N51" s="5"/>
-      <c r="O51" s="5"/>
-      <c r="P51" s="5"/>
-      <c r="Q51" s="5"/>
-      <c r="R51" s="5"/>
-      <c r="S51" s="5"/>
-      <c r="T51" s="5"/>
-      <c r="U51" s="5"/>
-      <c r="V51" s="5"/>
-      <c r="W51" s="5"/>
-      <c r="X51" s="5"/>
-      <c r="Y51" s="5"/>
-      <c r="Z51" s="5"/>
-      <c r="AA51" s="5"/>
-      <c r="AB51" s="5"/>
-      <c r="AC51" s="5"/>
-      <c r="AD51" s="5"/>
-      <c r="AE51" s="5"/>
-      <c r="AF51" s="5"/>
-      <c r="AG51" s="5"/>
-      <c r="AH51" s="5"/>
-      <c r="AI51" s="5"/>
-      <c r="AJ51" s="5"/>
-      <c r="AK51" s="5"/>
-      <c r="AL51" s="5"/>
-      <c r="AM51" s="5"/>
-      <c r="AN51" s="5"/>
-      <c r="AO51" s="5"/>
-      <c r="AP51" s="5"/>
-      <c r="AQ51" s="5"/>
-    </row>
-    <row r="52" spans="2:43" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B52" s="14" t="s">
+      <c r="C51" s="22"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="11"/>
+      <c r="L51" s="11"/>
+      <c r="M51" s="11"/>
+      <c r="N51" s="11"/>
+      <c r="O51" s="11"/>
+      <c r="P51" s="11"/>
+      <c r="Q51" s="11"/>
+      <c r="R51" s="11"/>
+      <c r="S51" s="11"/>
+      <c r="T51" s="11"/>
+      <c r="U51" s="11"/>
+      <c r="V51" s="11"/>
+      <c r="W51" s="11"/>
+      <c r="X51" s="11"/>
+      <c r="Y51" s="11"/>
+      <c r="Z51" s="11"/>
+      <c r="AA51" s="11"/>
+      <c r="AB51" s="11"/>
+      <c r="AC51" s="11"/>
+      <c r="AD51" s="11"/>
+      <c r="AE51" s="11"/>
+      <c r="AF51" s="11"/>
+      <c r="AG51" s="11"/>
+      <c r="AH51" s="11"/>
+      <c r="AI51" s="11"/>
+      <c r="AJ51" s="11"/>
+      <c r="AK51" s="11"/>
+      <c r="AL51" s="11"/>
+      <c r="AM51" s="11"/>
+      <c r="AN51" s="11"/>
+      <c r="AO51" s="11"/>
+      <c r="AP51" s="11"/>
+      <c r="AQ51" s="11"/>
+    </row>
+    <row r="52" spans="2:43" ht="16" x14ac:dyDescent="0.2">
+      <c r="B52" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C52" s="14" t="s">
+      <c r="C52" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="D52" s="20"/>
-      <c r="E52" s="17"/>
-      <c r="F52" s="17"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
@@ -3338,8 +3333,8 @@
       <c r="M52" s="4"/>
       <c r="N52" s="4"/>
       <c r="O52" s="4"/>
-      <c r="P52" s="17"/>
-      <c r="Q52" s="17"/>
+      <c r="P52" s="7"/>
+      <c r="Q52" s="7"/>
       <c r="R52" s="4"/>
       <c r="S52" s="4"/>
       <c r="T52" s="4"/>
@@ -3367,16 +3362,16 @@
       <c r="AP52" s="4"/>
       <c r="AQ52" s="4"/>
     </row>
-    <row r="53" spans="2:43" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B53" s="14" t="s">
+    <row r="53" spans="2:43" ht="16" x14ac:dyDescent="0.2">
+      <c r="B53" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C53" s="14" t="s">
+      <c r="C53" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="D53" s="20"/>
-      <c r="E53" s="17"/>
-      <c r="F53" s="17"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
@@ -3387,8 +3382,8 @@
       <c r="N53" s="4"/>
       <c r="O53" s="4"/>
       <c r="P53" s="4"/>
-      <c r="Q53" s="17"/>
-      <c r="R53" s="17"/>
+      <c r="Q53" s="7"/>
+      <c r="R53" s="7"/>
       <c r="S53" s="4"/>
       <c r="T53" s="4"/>
       <c r="U53" s="4"/>
@@ -3415,16 +3410,16 @@
       <c r="AP53" s="4"/>
       <c r="AQ53" s="4"/>
     </row>
-    <row r="54" spans="2:43" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B54" s="14" t="s">
+    <row r="54" spans="2:43" ht="16" x14ac:dyDescent="0.2">
+      <c r="B54" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C54" s="14" t="s">
+      <c r="C54" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="D54" s="20"/>
-      <c r="E54" s="17"/>
-      <c r="F54" s="17"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>
@@ -3435,9 +3430,9 @@
       <c r="N54" s="4"/>
       <c r="O54" s="4"/>
       <c r="P54" s="4"/>
-      <c r="Q54" s="17"/>
-      <c r="R54" s="17"/>
-      <c r="S54" s="17"/>
+      <c r="Q54" s="7"/>
+      <c r="R54" s="7"/>
+      <c r="S54" s="7"/>
       <c r="T54" s="4"/>
       <c r="U54" s="4"/>
       <c r="V54" s="4"/>
@@ -3463,16 +3458,16 @@
       <c r="AP54" s="4"/>
       <c r="AQ54" s="4"/>
     </row>
-    <row r="55" spans="2:43" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B55" s="14" t="s">
+    <row r="55" spans="2:43" ht="16" x14ac:dyDescent="0.2">
+      <c r="B55" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C55" s="14" t="s">
+      <c r="C55" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D55" s="20"/>
-      <c r="E55" s="17"/>
-      <c r="F55" s="17"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
       <c r="I55" s="4"/>
@@ -3485,7 +3480,7 @@
       <c r="P55" s="4"/>
       <c r="Q55" s="4"/>
       <c r="R55" s="4"/>
-      <c r="S55" s="17"/>
+      <c r="S55" s="7"/>
       <c r="T55" s="4"/>
       <c r="U55" s="4"/>
       <c r="V55" s="4"/>
@@ -3511,57 +3506,57 @@
       <c r="AP55" s="4"/>
       <c r="AQ55" s="4"/>
     </row>
-    <row r="56" spans="2:43" x14ac:dyDescent="0.25">
-      <c r="B56" s="15" t="s">
+    <row r="56" spans="2:43" x14ac:dyDescent="0.2">
+      <c r="B56" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C56" s="15"/>
-      <c r="D56" s="21"/>
-      <c r="E56" s="21"/>
-      <c r="F56" s="21"/>
-      <c r="G56" s="21"/>
-      <c r="H56" s="21"/>
-      <c r="I56" s="21"/>
-      <c r="J56" s="21"/>
-      <c r="K56" s="21"/>
-      <c r="L56" s="21"/>
-      <c r="M56" s="21"/>
-      <c r="N56" s="21"/>
-      <c r="O56" s="21"/>
-      <c r="P56" s="21"/>
-      <c r="Q56" s="21"/>
-      <c r="R56" s="21"/>
-      <c r="S56" s="21"/>
-      <c r="T56" s="21"/>
-      <c r="U56" s="21"/>
-      <c r="V56" s="21"/>
-      <c r="W56" s="21"/>
-      <c r="X56" s="5"/>
-      <c r="Y56" s="5"/>
-      <c r="Z56" s="5"/>
-      <c r="AA56" s="5"/>
-      <c r="AB56" s="5"/>
-      <c r="AC56" s="5"/>
-      <c r="AD56" s="5"/>
-      <c r="AE56" s="5"/>
-      <c r="AF56" s="5"/>
-      <c r="AG56" s="5"/>
-      <c r="AH56" s="5"/>
-      <c r="AI56" s="5"/>
-      <c r="AJ56" s="5"/>
-      <c r="AK56" s="5"/>
-      <c r="AL56" s="5"/>
-      <c r="AM56" s="5"/>
-      <c r="AN56" s="5"/>
-      <c r="AO56" s="5"/>
-      <c r="AP56" s="5"/>
-      <c r="AQ56" s="5"/>
-    </row>
-    <row r="57" spans="2:43" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B57" s="14" t="s">
+      <c r="C56" s="24"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="20"/>
+      <c r="H56" s="20"/>
+      <c r="I56" s="20"/>
+      <c r="J56" s="20"/>
+      <c r="K56" s="20"/>
+      <c r="L56" s="20"/>
+      <c r="M56" s="20"/>
+      <c r="N56" s="20"/>
+      <c r="O56" s="20"/>
+      <c r="P56" s="20"/>
+      <c r="Q56" s="20"/>
+      <c r="R56" s="20"/>
+      <c r="S56" s="20"/>
+      <c r="T56" s="20"/>
+      <c r="U56" s="20"/>
+      <c r="V56" s="20"/>
+      <c r="W56" s="20"/>
+      <c r="X56" s="11"/>
+      <c r="Y56" s="11"/>
+      <c r="Z56" s="11"/>
+      <c r="AA56" s="11"/>
+      <c r="AB56" s="11"/>
+      <c r="AC56" s="11"/>
+      <c r="AD56" s="11"/>
+      <c r="AE56" s="11"/>
+      <c r="AF56" s="11"/>
+      <c r="AG56" s="11"/>
+      <c r="AH56" s="11"/>
+      <c r="AI56" s="11"/>
+      <c r="AJ56" s="11"/>
+      <c r="AK56" s="11"/>
+      <c r="AL56" s="11"/>
+      <c r="AM56" s="11"/>
+      <c r="AN56" s="11"/>
+      <c r="AO56" s="11"/>
+      <c r="AP56" s="11"/>
+      <c r="AQ56" s="11"/>
+    </row>
+    <row r="57" spans="2:43" ht="16" x14ac:dyDescent="0.2">
+      <c r="B57" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C57" s="14" t="s">
+      <c r="C57" s="5" t="s">
         <v>96</v>
       </c>
       <c r="D57" s="4"/>
@@ -3584,8 +3579,8 @@
       <c r="U57" s="4"/>
       <c r="V57" s="4"/>
       <c r="W57" s="4"/>
-      <c r="X57" s="17"/>
-      <c r="Y57" s="17"/>
+      <c r="X57" s="7"/>
+      <c r="Y57" s="7"/>
       <c r="Z57" s="4"/>
       <c r="AA57" s="4"/>
       <c r="AB57" s="4"/>
@@ -3605,11 +3600,11 @@
       <c r="AP57" s="4"/>
       <c r="AQ57" s="4"/>
     </row>
-    <row r="58" spans="2:43" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B58" s="14" t="s">
+    <row r="58" spans="2:43" ht="16" x14ac:dyDescent="0.2">
+      <c r="B58" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C58" s="14" t="s">
+      <c r="C58" s="5" t="s">
         <v>97</v>
       </c>
       <c r="D58" s="4"/>
@@ -3648,16 +3643,16 @@
       <c r="AK58" s="4"/>
       <c r="AL58" s="4"/>
       <c r="AM58" s="4"/>
-      <c r="AN58" s="17"/>
-      <c r="AO58" s="17"/>
+      <c r="AN58" s="7"/>
+      <c r="AO58" s="7"/>
       <c r="AP58" s="4"/>
       <c r="AQ58" s="4"/>
     </row>
-    <row r="59" spans="2:43" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B59" s="14" t="s">
+    <row r="59" spans="2:43" ht="16" x14ac:dyDescent="0.2">
+      <c r="B59" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C59" s="14" t="s">
+      <c r="C59" s="5" t="s">
         <v>98</v>
       </c>
       <c r="D59" s="4"/>
@@ -3698,488 +3693,488 @@
       <c r="AM59" s="4"/>
       <c r="AN59" s="4"/>
       <c r="AO59" s="4"/>
-      <c r="AP59" s="17"/>
-      <c r="AQ59" s="17"/>
-    </row>
-    <row r="60" spans="2:43" x14ac:dyDescent="0.25">
-      <c r="B60" s="15" t="s">
+      <c r="AP59" s="7"/>
+      <c r="AQ59" s="7"/>
+    </row>
+    <row r="60" spans="2:43" x14ac:dyDescent="0.2">
+      <c r="B60" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="C60" s="15"/>
-      <c r="D60" s="5"/>
-      <c r="E60" s="5"/>
-      <c r="F60" s="5"/>
-      <c r="G60" s="5"/>
-      <c r="H60" s="5"/>
-      <c r="I60" s="5"/>
-      <c r="J60" s="5"/>
-      <c r="K60" s="5"/>
-      <c r="L60" s="5"/>
-      <c r="M60" s="5"/>
-      <c r="N60" s="5"/>
-      <c r="O60" s="5"/>
-      <c r="P60" s="5"/>
-      <c r="Q60" s="5"/>
-      <c r="R60" s="5"/>
-      <c r="S60" s="5"/>
-      <c r="T60" s="5"/>
-      <c r="U60" s="5"/>
-      <c r="V60" s="5"/>
-      <c r="W60" s="5"/>
-      <c r="X60" s="5"/>
-      <c r="Y60" s="5"/>
-      <c r="Z60" s="5"/>
-      <c r="AA60" s="5"/>
-      <c r="AB60" s="5"/>
-      <c r="AC60" s="5"/>
-      <c r="AD60" s="5"/>
-      <c r="AE60" s="5"/>
-      <c r="AF60" s="5"/>
-      <c r="AG60" s="5"/>
-      <c r="AH60" s="5"/>
-      <c r="AI60" s="5"/>
-      <c r="AJ60" s="5"/>
-      <c r="AK60" s="5"/>
-      <c r="AL60" s="5"/>
-      <c r="AM60" s="5"/>
-      <c r="AN60" s="5"/>
-      <c r="AO60" s="5"/>
-      <c r="AP60" s="5"/>
-      <c r="AQ60" s="5"/>
-    </row>
-    <row r="61" spans="2:43" x14ac:dyDescent="0.25">
-      <c r="B61" s="16" t="s">
+      <c r="C60" s="24"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="11"/>
+      <c r="H60" s="11"/>
+      <c r="I60" s="11"/>
+      <c r="J60" s="11"/>
+      <c r="K60" s="11"/>
+      <c r="L60" s="11"/>
+      <c r="M60" s="11"/>
+      <c r="N60" s="11"/>
+      <c r="O60" s="11"/>
+      <c r="P60" s="11"/>
+      <c r="Q60" s="11"/>
+      <c r="R60" s="11"/>
+      <c r="S60" s="11"/>
+      <c r="T60" s="11"/>
+      <c r="U60" s="11"/>
+      <c r="V60" s="11"/>
+      <c r="W60" s="11"/>
+      <c r="X60" s="11"/>
+      <c r="Y60" s="11"/>
+      <c r="Z60" s="11"/>
+      <c r="AA60" s="11"/>
+      <c r="AB60" s="11"/>
+      <c r="AC60" s="11"/>
+      <c r="AD60" s="11"/>
+      <c r="AE60" s="11"/>
+      <c r="AF60" s="11"/>
+      <c r="AG60" s="11"/>
+      <c r="AH60" s="11"/>
+      <c r="AI60" s="11"/>
+      <c r="AJ60" s="11"/>
+      <c r="AK60" s="11"/>
+      <c r="AL60" s="11"/>
+      <c r="AM60" s="11"/>
+      <c r="AN60" s="11"/>
+      <c r="AO60" s="11"/>
+      <c r="AP60" s="11"/>
+      <c r="AQ60" s="11"/>
+    </row>
+    <row r="61" spans="2:43" x14ac:dyDescent="0.2">
+      <c r="B61" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="C61" s="16" t="s">
+      <c r="C61" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="D61" s="19"/>
-      <c r="E61" s="19"/>
-      <c r="F61" s="19"/>
-      <c r="G61" s="19"/>
-      <c r="H61" s="19"/>
-      <c r="I61" s="19"/>
-      <c r="J61" s="19"/>
-      <c r="K61" s="19"/>
-      <c r="L61" s="19"/>
-      <c r="M61" s="19"/>
-      <c r="N61" s="19"/>
-      <c r="O61" s="19"/>
-      <c r="P61" s="19"/>
-      <c r="Q61" s="19"/>
-      <c r="R61" s="19"/>
-      <c r="S61" s="19"/>
-      <c r="T61" s="19"/>
-      <c r="U61" s="19"/>
-      <c r="V61" s="19"/>
-      <c r="W61" s="19"/>
-      <c r="X61" s="19"/>
-      <c r="Y61" s="19"/>
-      <c r="Z61" s="19"/>
-      <c r="AA61" s="19"/>
-      <c r="AB61" s="19"/>
-      <c r="AC61" s="19"/>
-      <c r="AD61" s="19"/>
-      <c r="AE61" s="19"/>
-      <c r="AF61" s="19"/>
-      <c r="AG61" s="19"/>
-      <c r="AH61" s="19"/>
-      <c r="AI61" s="19"/>
-      <c r="AJ61" s="19"/>
-      <c r="AK61" s="19"/>
-      <c r="AL61" s="19"/>
-      <c r="AM61" s="19"/>
-      <c r="AN61" s="19"/>
-      <c r="AO61" s="19"/>
-      <c r="AP61" s="19"/>
-      <c r="AQ61" s="19"/>
-    </row>
-    <row r="62" spans="2:43" x14ac:dyDescent="0.25">
-      <c r="B62" s="16" t="s">
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="9"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c r="L61" s="9"/>
+      <c r="M61" s="9"/>
+      <c r="N61" s="9"/>
+      <c r="O61" s="9"/>
+      <c r="P61" s="9"/>
+      <c r="Q61" s="9"/>
+      <c r="R61" s="9"/>
+      <c r="S61" s="9"/>
+      <c r="T61" s="9"/>
+      <c r="U61" s="9"/>
+      <c r="V61" s="9"/>
+      <c r="W61" s="9"/>
+      <c r="X61" s="9"/>
+      <c r="Y61" s="9"/>
+      <c r="Z61" s="9"/>
+      <c r="AA61" s="9"/>
+      <c r="AB61" s="9"/>
+      <c r="AC61" s="9"/>
+      <c r="AD61" s="9"/>
+      <c r="AE61" s="9"/>
+      <c r="AF61" s="9"/>
+      <c r="AG61" s="9"/>
+      <c r="AH61" s="9"/>
+      <c r="AI61" s="9"/>
+      <c r="AJ61" s="9"/>
+      <c r="AK61" s="9"/>
+      <c r="AL61" s="9"/>
+      <c r="AM61" s="9"/>
+      <c r="AN61" s="9"/>
+      <c r="AO61" s="9"/>
+      <c r="AP61" s="9"/>
+      <c r="AQ61" s="9"/>
+    </row>
+    <row r="62" spans="2:43" x14ac:dyDescent="0.2">
+      <c r="B62" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C62" s="16" t="s">
+      <c r="C62" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="D62" s="19"/>
-      <c r="E62" s="19"/>
-      <c r="F62" s="19"/>
-      <c r="G62" s="19"/>
-      <c r="H62" s="19"/>
-      <c r="I62" s="19"/>
-      <c r="J62" s="19"/>
-      <c r="K62" s="19"/>
-      <c r="L62" s="19"/>
-      <c r="M62" s="19"/>
-      <c r="N62" s="19"/>
-      <c r="O62" s="19"/>
-      <c r="P62" s="19"/>
-      <c r="Q62" s="19"/>
-      <c r="R62" s="19"/>
-      <c r="S62" s="19"/>
-      <c r="T62" s="19"/>
-      <c r="U62" s="19"/>
-      <c r="V62" s="19"/>
-      <c r="W62" s="19"/>
-      <c r="X62" s="19"/>
-      <c r="Y62" s="19"/>
-      <c r="Z62" s="19"/>
-      <c r="AA62" s="19"/>
-      <c r="AB62" s="19"/>
-      <c r="AC62" s="19"/>
-      <c r="AD62" s="19"/>
-      <c r="AE62" s="19"/>
-      <c r="AF62" s="19"/>
-      <c r="AG62" s="19"/>
-      <c r="AH62" s="19"/>
-      <c r="AI62" s="19"/>
-      <c r="AJ62" s="19"/>
-      <c r="AK62" s="19"/>
-      <c r="AL62" s="19"/>
-      <c r="AM62" s="19"/>
-      <c r="AN62" s="19"/>
-      <c r="AO62" s="19"/>
-      <c r="AP62" s="19"/>
-      <c r="AQ62" s="19"/>
-    </row>
-    <row r="63" spans="2:43" x14ac:dyDescent="0.25">
-      <c r="B63" s="16" t="s">
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="9"/>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c r="L62" s="9"/>
+      <c r="M62" s="9"/>
+      <c r="N62" s="9"/>
+      <c r="O62" s="9"/>
+      <c r="P62" s="9"/>
+      <c r="Q62" s="9"/>
+      <c r="R62" s="9"/>
+      <c r="S62" s="9"/>
+      <c r="T62" s="9"/>
+      <c r="U62" s="9"/>
+      <c r="V62" s="9"/>
+      <c r="W62" s="9"/>
+      <c r="X62" s="9"/>
+      <c r="Y62" s="9"/>
+      <c r="Z62" s="9"/>
+      <c r="AA62" s="9"/>
+      <c r="AB62" s="9"/>
+      <c r="AC62" s="9"/>
+      <c r="AD62" s="9"/>
+      <c r="AE62" s="9"/>
+      <c r="AF62" s="9"/>
+      <c r="AG62" s="9"/>
+      <c r="AH62" s="9"/>
+      <c r="AI62" s="9"/>
+      <c r="AJ62" s="9"/>
+      <c r="AK62" s="9"/>
+      <c r="AL62" s="9"/>
+      <c r="AM62" s="9"/>
+      <c r="AN62" s="9"/>
+      <c r="AO62" s="9"/>
+      <c r="AP62" s="9"/>
+      <c r="AQ62" s="9"/>
+    </row>
+    <row r="63" spans="2:43" x14ac:dyDescent="0.2">
+      <c r="B63" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="C63" s="16" t="s">
+      <c r="C63" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="D63" s="19"/>
-      <c r="E63" s="19"/>
-      <c r="F63" s="19"/>
-      <c r="G63" s="19"/>
-      <c r="H63" s="19"/>
-      <c r="I63" s="19"/>
-      <c r="J63" s="19"/>
-      <c r="K63" s="19"/>
-      <c r="L63" s="19"/>
-      <c r="M63" s="19"/>
-      <c r="N63" s="19"/>
-      <c r="O63" s="19"/>
-      <c r="P63" s="19"/>
-      <c r="Q63" s="19"/>
-      <c r="R63" s="19"/>
-      <c r="S63" s="19"/>
-      <c r="T63" s="19"/>
-      <c r="U63" s="19"/>
-      <c r="V63" s="19"/>
-      <c r="W63" s="19"/>
-      <c r="X63" s="19"/>
-      <c r="Y63" s="19"/>
-      <c r="Z63" s="19"/>
-      <c r="AA63" s="19"/>
-      <c r="AB63" s="19"/>
-      <c r="AC63" s="19"/>
-      <c r="AD63" s="19"/>
-      <c r="AE63" s="19"/>
-      <c r="AF63" s="19"/>
-      <c r="AG63" s="19"/>
-      <c r="AH63" s="19"/>
-      <c r="AI63" s="19"/>
-      <c r="AJ63" s="19"/>
-      <c r="AK63" s="19"/>
-      <c r="AL63" s="19"/>
-      <c r="AM63" s="19"/>
-      <c r="AN63" s="19"/>
-      <c r="AO63" s="19"/>
-      <c r="AP63" s="19"/>
-      <c r="AQ63" s="19"/>
-    </row>
-    <row r="64" spans="2:43" x14ac:dyDescent="0.25">
-      <c r="B64" s="15" t="s">
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="9"/>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c r="L63" s="9"/>
+      <c r="M63" s="9"/>
+      <c r="N63" s="9"/>
+      <c r="O63" s="9"/>
+      <c r="P63" s="9"/>
+      <c r="Q63" s="9"/>
+      <c r="R63" s="9"/>
+      <c r="S63" s="9"/>
+      <c r="T63" s="9"/>
+      <c r="U63" s="9"/>
+      <c r="V63" s="9"/>
+      <c r="W63" s="9"/>
+      <c r="X63" s="9"/>
+      <c r="Y63" s="9"/>
+      <c r="Z63" s="9"/>
+      <c r="AA63" s="9"/>
+      <c r="AB63" s="9"/>
+      <c r="AC63" s="9"/>
+      <c r="AD63" s="9"/>
+      <c r="AE63" s="9"/>
+      <c r="AF63" s="9"/>
+      <c r="AG63" s="9"/>
+      <c r="AH63" s="9"/>
+      <c r="AI63" s="9"/>
+      <c r="AJ63" s="9"/>
+      <c r="AK63" s="9"/>
+      <c r="AL63" s="9"/>
+      <c r="AM63" s="9"/>
+      <c r="AN63" s="9"/>
+      <c r="AO63" s="9"/>
+      <c r="AP63" s="9"/>
+      <c r="AQ63" s="9"/>
+    </row>
+    <row r="64" spans="2:43" x14ac:dyDescent="0.2">
+      <c r="B64" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C64" s="15"/>
-      <c r="D64" s="5"/>
-      <c r="E64" s="5"/>
-      <c r="F64" s="5"/>
-      <c r="G64" s="5"/>
-      <c r="H64" s="5"/>
-      <c r="I64" s="5"/>
-      <c r="J64" s="5"/>
-      <c r="K64" s="5"/>
-      <c r="L64" s="5"/>
-      <c r="M64" s="5"/>
-      <c r="N64" s="5"/>
-      <c r="O64" s="5"/>
-      <c r="P64" s="5"/>
-      <c r="Q64" s="5"/>
-      <c r="R64" s="5"/>
-      <c r="S64" s="5"/>
-      <c r="T64" s="5"/>
-      <c r="U64" s="5"/>
-      <c r="V64" s="5"/>
-      <c r="W64" s="5"/>
-      <c r="X64" s="5"/>
-      <c r="Y64" s="5"/>
-      <c r="Z64" s="5"/>
-      <c r="AA64" s="5"/>
-      <c r="AB64" s="5"/>
-      <c r="AC64" s="5"/>
-      <c r="AD64" s="5"/>
-      <c r="AE64" s="5"/>
-      <c r="AF64" s="5"/>
-      <c r="AG64" s="5"/>
-      <c r="AH64" s="5"/>
-      <c r="AI64" s="5"/>
-      <c r="AJ64" s="5"/>
-      <c r="AK64" s="5"/>
-      <c r="AL64" s="5"/>
-      <c r="AM64" s="5"/>
-      <c r="AN64" s="5"/>
-      <c r="AO64" s="5"/>
-      <c r="AP64" s="5"/>
-      <c r="AQ64" s="5"/>
-    </row>
-    <row r="65" spans="2:43" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B65" s="14" t="s">
+      <c r="C64" s="24"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="11"/>
+      <c r="H64" s="11"/>
+      <c r="I64" s="11"/>
+      <c r="J64" s="11"/>
+      <c r="K64" s="11"/>
+      <c r="L64" s="11"/>
+      <c r="M64" s="11"/>
+      <c r="N64" s="11"/>
+      <c r="O64" s="11"/>
+      <c r="P64" s="11"/>
+      <c r="Q64" s="11"/>
+      <c r="R64" s="11"/>
+      <c r="S64" s="11"/>
+      <c r="T64" s="11"/>
+      <c r="U64" s="11"/>
+      <c r="V64" s="11"/>
+      <c r="W64" s="11"/>
+      <c r="X64" s="11"/>
+      <c r="Y64" s="11"/>
+      <c r="Z64" s="11"/>
+      <c r="AA64" s="11"/>
+      <c r="AB64" s="11"/>
+      <c r="AC64" s="11"/>
+      <c r="AD64" s="11"/>
+      <c r="AE64" s="11"/>
+      <c r="AF64" s="11"/>
+      <c r="AG64" s="11"/>
+      <c r="AH64" s="11"/>
+      <c r="AI64" s="11"/>
+      <c r="AJ64" s="11"/>
+      <c r="AK64" s="11"/>
+      <c r="AL64" s="11"/>
+      <c r="AM64" s="11"/>
+      <c r="AN64" s="11"/>
+      <c r="AO64" s="11"/>
+      <c r="AP64" s="11"/>
+      <c r="AQ64" s="11"/>
+    </row>
+    <row r="65" spans="2:43" ht="16" x14ac:dyDescent="0.2">
+      <c r="B65" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C65" s="14" t="s">
+      <c r="C65" s="5" t="s">
         <v>109</v>
       </c>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
-      <c r="G65" s="17"/>
+      <c r="G65" s="7"/>
       <c r="H65" s="4"/>
       <c r="I65" s="4"/>
       <c r="J65" s="4"/>
-      <c r="K65" s="17"/>
+      <c r="K65" s="7"/>
       <c r="L65" s="4"/>
       <c r="M65" s="4"/>
       <c r="N65" s="4"/>
-      <c r="O65" s="17"/>
+      <c r="O65" s="7"/>
       <c r="P65" s="4"/>
       <c r="Q65" s="4"/>
       <c r="R65" s="4"/>
-      <c r="S65" s="17"/>
+      <c r="S65" s="7"/>
       <c r="T65" s="4"/>
       <c r="U65" s="4"/>
       <c r="V65" s="4"/>
-      <c r="W65" s="17"/>
+      <c r="W65" s="7"/>
       <c r="X65" s="4"/>
       <c r="Y65" s="4"/>
       <c r="Z65" s="4"/>
-      <c r="AA65" s="17"/>
+      <c r="AA65" s="7"/>
       <c r="AB65" s="4"/>
       <c r="AC65" s="4"/>
       <c r="AD65" s="4"/>
-      <c r="AE65" s="17"/>
+      <c r="AE65" s="7"/>
       <c r="AF65" s="4"/>
       <c r="AG65" s="4"/>
       <c r="AH65" s="4"/>
-      <c r="AI65" s="17"/>
+      <c r="AI65" s="7"/>
       <c r="AJ65" s="4"/>
       <c r="AK65" s="4"/>
       <c r="AL65" s="4"/>
-      <c r="AM65" s="17"/>
+      <c r="AM65" s="7"/>
       <c r="AN65" s="4"/>
       <c r="AO65" s="4"/>
       <c r="AP65" s="4"/>
-      <c r="AQ65" s="17"/>
-    </row>
-    <row r="66" spans="2:43" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B66" s="14" t="s">
+      <c r="AQ65" s="7"/>
+    </row>
+    <row r="66" spans="2:43" ht="16" x14ac:dyDescent="0.2">
+      <c r="B66" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C66" s="14" t="s">
+      <c r="C66" s="5" t="s">
         <v>110</v>
       </c>
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
-      <c r="G66" s="17"/>
+      <c r="G66" s="7"/>
       <c r="H66" s="4"/>
       <c r="I66" s="4"/>
       <c r="J66" s="4"/>
-      <c r="K66" s="17"/>
+      <c r="K66" s="7"/>
       <c r="L66" s="4"/>
       <c r="M66" s="4"/>
       <c r="N66" s="4"/>
-      <c r="O66" s="17"/>
+      <c r="O66" s="7"/>
       <c r="P66" s="4"/>
       <c r="Q66" s="4"/>
       <c r="R66" s="4"/>
-      <c r="S66" s="17"/>
+      <c r="S66" s="7"/>
       <c r="T66" s="4"/>
       <c r="U66" s="4"/>
       <c r="V66" s="4"/>
-      <c r="W66" s="17"/>
+      <c r="W66" s="7"/>
       <c r="X66" s="4"/>
       <c r="Y66" s="4"/>
       <c r="Z66" s="4"/>
-      <c r="AA66" s="17"/>
+      <c r="AA66" s="7"/>
       <c r="AB66" s="4"/>
       <c r="AC66" s="4"/>
       <c r="AD66" s="4"/>
-      <c r="AE66" s="17"/>
+      <c r="AE66" s="7"/>
       <c r="AF66" s="4"/>
       <c r="AG66" s="4"/>
       <c r="AH66" s="4"/>
-      <c r="AI66" s="17"/>
+      <c r="AI66" s="7"/>
       <c r="AJ66" s="4"/>
       <c r="AK66" s="4"/>
       <c r="AL66" s="4"/>
-      <c r="AM66" s="17"/>
+      <c r="AM66" s="7"/>
       <c r="AN66" s="4"/>
       <c r="AO66" s="4"/>
       <c r="AP66" s="4"/>
-      <c r="AQ66" s="17"/>
-    </row>
-    <row r="67" spans="2:43" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B67" s="14" t="s">
+      <c r="AQ66" s="7"/>
+    </row>
+    <row r="67" spans="2:43" ht="16" x14ac:dyDescent="0.2">
+      <c r="B67" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="C67" s="14" t="s">
+      <c r="C67" s="5" t="s">
         <v>111</v>
       </c>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
-      <c r="G67" s="17"/>
+      <c r="G67" s="7"/>
       <c r="H67" s="4"/>
       <c r="I67" s="4"/>
       <c r="J67" s="4"/>
-      <c r="K67" s="17"/>
+      <c r="K67" s="7"/>
       <c r="L67" s="4"/>
       <c r="M67" s="4"/>
       <c r="N67" s="4"/>
-      <c r="O67" s="17"/>
+      <c r="O67" s="7"/>
       <c r="P67" s="4"/>
       <c r="Q67" s="4"/>
       <c r="R67" s="4"/>
-      <c r="S67" s="17"/>
+      <c r="S67" s="7"/>
       <c r="T67" s="4"/>
       <c r="U67" s="4"/>
       <c r="V67" s="4"/>
-      <c r="W67" s="17"/>
+      <c r="W67" s="7"/>
       <c r="X67" s="4"/>
       <c r="Y67" s="4"/>
       <c r="Z67" s="4"/>
-      <c r="AA67" s="17"/>
+      <c r="AA67" s="7"/>
       <c r="AB67" s="4"/>
       <c r="AC67" s="4"/>
       <c r="AD67" s="4"/>
-      <c r="AE67" s="17"/>
+      <c r="AE67" s="7"/>
       <c r="AF67" s="4"/>
       <c r="AG67" s="4"/>
       <c r="AH67" s="4"/>
-      <c r="AI67" s="17"/>
+      <c r="AI67" s="7"/>
       <c r="AJ67" s="4"/>
       <c r="AK67" s="4"/>
       <c r="AL67" s="4"/>
-      <c r="AM67" s="17"/>
+      <c r="AM67" s="7"/>
       <c r="AN67" s="4"/>
       <c r="AO67" s="4"/>
       <c r="AP67" s="4"/>
-      <c r="AQ67" s="17"/>
-    </row>
-    <row r="68" spans="2:43" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B68" s="14" t="s">
+      <c r="AQ67" s="7"/>
+    </row>
+    <row r="68" spans="2:43" ht="16" x14ac:dyDescent="0.2">
+      <c r="B68" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="C68" s="18" t="s">
+      <c r="C68" s="8" t="s">
         <v>104</v>
       </c>
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
-      <c r="G68" s="17"/>
+      <c r="G68" s="7"/>
       <c r="H68" s="4"/>
       <c r="I68" s="4"/>
       <c r="J68" s="4"/>
-      <c r="K68" s="17"/>
+      <c r="K68" s="7"/>
       <c r="L68" s="4"/>
       <c r="M68" s="4"/>
       <c r="N68" s="4"/>
-      <c r="O68" s="17"/>
+      <c r="O68" s="7"/>
       <c r="P68" s="4"/>
       <c r="Q68" s="4"/>
       <c r="R68" s="4"/>
-      <c r="S68" s="17"/>
+      <c r="S68" s="7"/>
       <c r="T68" s="4"/>
       <c r="U68" s="4"/>
       <c r="V68" s="4"/>
-      <c r="W68" s="17"/>
+      <c r="W68" s="7"/>
       <c r="X68" s="4"/>
       <c r="Y68" s="4"/>
       <c r="Z68" s="4"/>
-      <c r="AA68" s="17"/>
+      <c r="AA68" s="7"/>
       <c r="AB68" s="4"/>
       <c r="AC68" s="4"/>
       <c r="AD68" s="4"/>
-      <c r="AE68" s="17"/>
+      <c r="AE68" s="7"/>
       <c r="AF68" s="4"/>
       <c r="AG68" s="4"/>
       <c r="AH68" s="4"/>
-      <c r="AI68" s="17"/>
+      <c r="AI68" s="7"/>
       <c r="AJ68" s="4"/>
       <c r="AK68" s="4"/>
       <c r="AL68" s="4"/>
-      <c r="AM68" s="17"/>
+      <c r="AM68" s="7"/>
       <c r="AN68" s="4"/>
       <c r="AO68" s="4"/>
       <c r="AP68" s="4"/>
-      <c r="AQ68" s="17"/>
-    </row>
-    <row r="69" spans="2:43" x14ac:dyDescent="0.25">
-      <c r="B69" s="15" t="s">
+      <c r="AQ68" s="7"/>
+    </row>
+    <row r="69" spans="2:43" x14ac:dyDescent="0.2">
+      <c r="B69" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C69" s="15"/>
-      <c r="D69" s="5"/>
-      <c r="E69" s="5"/>
-      <c r="F69" s="5"/>
-      <c r="G69" s="5"/>
-      <c r="H69" s="5"/>
-      <c r="I69" s="5"/>
-      <c r="J69" s="5"/>
-      <c r="K69" s="5"/>
-      <c r="L69" s="5"/>
-      <c r="M69" s="5"/>
-      <c r="N69" s="5"/>
-      <c r="O69" s="5"/>
-      <c r="P69" s="5"/>
-      <c r="Q69" s="5"/>
-      <c r="R69" s="5"/>
-      <c r="S69" s="5"/>
-      <c r="T69" s="5"/>
-      <c r="U69" s="5"/>
-      <c r="V69" s="5"/>
-      <c r="W69" s="5"/>
-      <c r="X69" s="5"/>
-      <c r="Y69" s="5"/>
-      <c r="Z69" s="5"/>
-      <c r="AA69" s="5"/>
-      <c r="AB69" s="5"/>
-      <c r="AC69" s="5"/>
-      <c r="AD69" s="5"/>
-      <c r="AE69" s="5"/>
-      <c r="AF69" s="5"/>
-      <c r="AG69" s="5"/>
-      <c r="AH69" s="5"/>
-      <c r="AI69" s="5"/>
-      <c r="AJ69" s="5"/>
-      <c r="AK69" s="5"/>
-      <c r="AL69" s="5"/>
-      <c r="AM69" s="5"/>
-      <c r="AN69" s="5"/>
-      <c r="AO69" s="5"/>
-      <c r="AP69" s="5"/>
-      <c r="AQ69" s="5"/>
-    </row>
-    <row r="70" spans="2:43" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B70" s="14" t="s">
+      <c r="C69" s="13"/>
+      <c r="D69" s="11"/>
+      <c r="E69" s="11"/>
+      <c r="F69" s="11"/>
+      <c r="G69" s="11"/>
+      <c r="H69" s="11"/>
+      <c r="I69" s="11"/>
+      <c r="J69" s="11"/>
+      <c r="K69" s="11"/>
+      <c r="L69" s="11"/>
+      <c r="M69" s="11"/>
+      <c r="N69" s="11"/>
+      <c r="O69" s="11"/>
+      <c r="P69" s="11"/>
+      <c r="Q69" s="11"/>
+      <c r="R69" s="11"/>
+      <c r="S69" s="11"/>
+      <c r="T69" s="11"/>
+      <c r="U69" s="11"/>
+      <c r="V69" s="11"/>
+      <c r="W69" s="11"/>
+      <c r="X69" s="11"/>
+      <c r="Y69" s="11"/>
+      <c r="Z69" s="11"/>
+      <c r="AA69" s="11"/>
+      <c r="AB69" s="11"/>
+      <c r="AC69" s="11"/>
+      <c r="AD69" s="11"/>
+      <c r="AE69" s="11"/>
+      <c r="AF69" s="11"/>
+      <c r="AG69" s="11"/>
+      <c r="AH69" s="11"/>
+      <c r="AI69" s="11"/>
+      <c r="AJ69" s="11"/>
+      <c r="AK69" s="11"/>
+      <c r="AL69" s="11"/>
+      <c r="AM69" s="11"/>
+      <c r="AN69" s="11"/>
+      <c r="AO69" s="11"/>
+      <c r="AP69" s="11"/>
+      <c r="AQ69" s="11"/>
+    </row>
+    <row r="70" spans="2:43" ht="16" x14ac:dyDescent="0.2">
+      <c r="B70" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="C70" s="14" t="s">
+      <c r="C70" s="5" t="s">
         <v>114</v>
       </c>
       <c r="D70" s="4"/>
@@ -4220,14 +4215,14 @@
       <c r="AM70" s="4"/>
       <c r="AN70" s="4"/>
       <c r="AO70" s="4"/>
-      <c r="AP70" s="17"/>
-      <c r="AQ70" s="17"/>
-    </row>
-    <row r="71" spans="2:43" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B71" s="14" t="s">
+      <c r="AP70" s="7"/>
+      <c r="AQ70" s="7"/>
+    </row>
+    <row r="71" spans="2:43" ht="16" x14ac:dyDescent="0.2">
+      <c r="B71" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="C71" s="14" t="s">
+      <c r="C71" s="5" t="s">
         <v>115</v>
       </c>
       <c r="D71" s="4"/>
@@ -4268,10 +4263,10 @@
       <c r="AM71" s="4"/>
       <c r="AN71" s="4"/>
       <c r="AO71" s="4"/>
-      <c r="AP71" s="17"/>
-      <c r="AQ71" s="17"/>
-    </row>
-    <row r="72" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="AP71" s="7"/>
+      <c r="AQ71" s="7"/>
+    </row>
+    <row r="72" spans="2:43" x14ac:dyDescent="0.2">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -4317,6 +4312,169 @@
     </row>
   </sheetData>
   <mergeCells count="187">
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="L47:O47"/>
+    <mergeCell ref="P47:S47"/>
+    <mergeCell ref="T39:W39"/>
+    <mergeCell ref="X39:AA39"/>
+    <mergeCell ref="AB39:AE39"/>
+    <mergeCell ref="AF39:AI39"/>
+    <mergeCell ref="AN47:AQ47"/>
+    <mergeCell ref="T47:W47"/>
+    <mergeCell ref="X47:AA47"/>
+    <mergeCell ref="AB47:AE47"/>
+    <mergeCell ref="AF47:AI47"/>
+    <mergeCell ref="AJ47:AM47"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:O39"/>
+    <mergeCell ref="T60:W60"/>
+    <mergeCell ref="X60:AA60"/>
+    <mergeCell ref="AB60:AE60"/>
+    <mergeCell ref="AF60:AI60"/>
+    <mergeCell ref="AJ60:AM60"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="AJ39:AM39"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:O43"/>
+    <mergeCell ref="P43:S43"/>
+    <mergeCell ref="T43:W43"/>
+    <mergeCell ref="X43:AA43"/>
+    <mergeCell ref="AB43:AE43"/>
+    <mergeCell ref="AF43:AI43"/>
+    <mergeCell ref="AJ43:AM43"/>
+    <mergeCell ref="P39:S39"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:O35"/>
+    <mergeCell ref="P35:S35"/>
+    <mergeCell ref="T35:W35"/>
+    <mergeCell ref="X35:AA35"/>
+    <mergeCell ref="AB35:AE35"/>
+    <mergeCell ref="AF35:AI35"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:G56"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L56:O56"/>
+    <mergeCell ref="P56:S56"/>
+    <mergeCell ref="T56:W56"/>
+    <mergeCell ref="X56:AA56"/>
+    <mergeCell ref="AB56:AE56"/>
+    <mergeCell ref="AF56:AI56"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:G51"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="L51:O51"/>
+    <mergeCell ref="AF69:AI69"/>
+    <mergeCell ref="AJ69:AM69"/>
+    <mergeCell ref="AN69:AQ69"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="D64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:O64"/>
+    <mergeCell ref="P64:S64"/>
+    <mergeCell ref="T64:W64"/>
+    <mergeCell ref="X64:AA64"/>
+    <mergeCell ref="AB64:AE64"/>
+    <mergeCell ref="AF64:AI64"/>
+    <mergeCell ref="AJ64:AM64"/>
+    <mergeCell ref="AN64:AQ64"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="D69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:O69"/>
+    <mergeCell ref="L60:O60"/>
+    <mergeCell ref="P60:S60"/>
+    <mergeCell ref="AN31:AQ31"/>
+    <mergeCell ref="P69:S69"/>
+    <mergeCell ref="T69:W69"/>
+    <mergeCell ref="X69:AA69"/>
+    <mergeCell ref="AB69:AE69"/>
+    <mergeCell ref="T31:W31"/>
+    <mergeCell ref="X31:AA31"/>
+    <mergeCell ref="AB31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="AJ31:AM31"/>
+    <mergeCell ref="AJ51:AM51"/>
+    <mergeCell ref="AN51:AQ51"/>
+    <mergeCell ref="AJ56:AM56"/>
+    <mergeCell ref="AN56:AQ56"/>
+    <mergeCell ref="P51:S51"/>
+    <mergeCell ref="T51:W51"/>
+    <mergeCell ref="X51:AA51"/>
+    <mergeCell ref="AB51:AE51"/>
+    <mergeCell ref="AF51:AI51"/>
+    <mergeCell ref="AN60:AQ60"/>
+    <mergeCell ref="AJ35:AM35"/>
+    <mergeCell ref="AN35:AQ35"/>
+    <mergeCell ref="AN39:AQ39"/>
+    <mergeCell ref="AN43:AQ43"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="L31:O31"/>
+    <mergeCell ref="P31:S31"/>
+    <mergeCell ref="AJ21:AM21"/>
+    <mergeCell ref="AN21:AQ21"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="L25:O25"/>
+    <mergeCell ref="P25:S25"/>
+    <mergeCell ref="T25:W25"/>
+    <mergeCell ref="X25:AA25"/>
+    <mergeCell ref="AB25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="AJ25:AM25"/>
+    <mergeCell ref="AN25:AQ25"/>
+    <mergeCell ref="P21:S21"/>
+    <mergeCell ref="T21:W21"/>
+    <mergeCell ref="X21:AA21"/>
+    <mergeCell ref="AB21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B1:AQ2"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="AN6:AQ6"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="P6:S6"/>
+    <mergeCell ref="T6:W6"/>
+    <mergeCell ref="X6:AA6"/>
+    <mergeCell ref="AB6:AE6"/>
+    <mergeCell ref="AF6:AI6"/>
+    <mergeCell ref="X12:AA12"/>
+    <mergeCell ref="AB12:AE12"/>
+    <mergeCell ref="AJ17:AM17"/>
+    <mergeCell ref="AN17:AQ17"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:O21"/>
+    <mergeCell ref="AJ6:AM6"/>
+    <mergeCell ref="AJ7:AM7"/>
+    <mergeCell ref="AF7:AI7"/>
+    <mergeCell ref="AN7:AQ7"/>
+    <mergeCell ref="AB7:AE7"/>
+    <mergeCell ref="AB8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="AJ8:AM8"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:O17"/>
+    <mergeCell ref="P17:S17"/>
+    <mergeCell ref="T17:W17"/>
+    <mergeCell ref="X17:AA17"/>
+    <mergeCell ref="AB17:AE17"/>
     <mergeCell ref="AF12:AI12"/>
     <mergeCell ref="AJ12:AM12"/>
     <mergeCell ref="AN8:AQ8"/>
@@ -4341,169 +4499,6 @@
     <mergeCell ref="L12:O12"/>
     <mergeCell ref="P12:S12"/>
     <mergeCell ref="T12:W12"/>
-    <mergeCell ref="X12:AA12"/>
-    <mergeCell ref="AB12:AE12"/>
-    <mergeCell ref="AJ17:AM17"/>
-    <mergeCell ref="AN17:AQ17"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="H21:K21"/>
-    <mergeCell ref="L21:O21"/>
-    <mergeCell ref="AJ6:AM6"/>
-    <mergeCell ref="AJ7:AM7"/>
-    <mergeCell ref="B1:AQ2"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="AN6:AQ6"/>
-    <mergeCell ref="L6:O6"/>
-    <mergeCell ref="P6:S6"/>
-    <mergeCell ref="T6:W6"/>
-    <mergeCell ref="X6:AA6"/>
-    <mergeCell ref="AB6:AE6"/>
-    <mergeCell ref="AF6:AI6"/>
-    <mergeCell ref="AF7:AI7"/>
-    <mergeCell ref="AN7:AQ7"/>
-    <mergeCell ref="AB7:AE7"/>
-    <mergeCell ref="AB8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="AJ8:AM8"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="H17:K17"/>
-    <mergeCell ref="L17:O17"/>
-    <mergeCell ref="P17:S17"/>
-    <mergeCell ref="T17:W17"/>
-    <mergeCell ref="X17:AA17"/>
-    <mergeCell ref="AB17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:G31"/>
-    <mergeCell ref="H31:K31"/>
-    <mergeCell ref="L31:O31"/>
-    <mergeCell ref="P31:S31"/>
-    <mergeCell ref="AJ21:AM21"/>
-    <mergeCell ref="AN21:AQ21"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="H25:K25"/>
-    <mergeCell ref="L25:O25"/>
-    <mergeCell ref="P25:S25"/>
-    <mergeCell ref="T25:W25"/>
-    <mergeCell ref="X25:AA25"/>
-    <mergeCell ref="AB25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="AJ25:AM25"/>
-    <mergeCell ref="AN25:AQ25"/>
-    <mergeCell ref="P21:S21"/>
-    <mergeCell ref="T21:W21"/>
-    <mergeCell ref="X21:AA21"/>
-    <mergeCell ref="AB21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="AN31:AQ31"/>
-    <mergeCell ref="P69:S69"/>
-    <mergeCell ref="T69:W69"/>
-    <mergeCell ref="X69:AA69"/>
-    <mergeCell ref="AB69:AE69"/>
-    <mergeCell ref="T31:W31"/>
-    <mergeCell ref="X31:AA31"/>
-    <mergeCell ref="AB31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="AJ31:AM31"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:G51"/>
-    <mergeCell ref="H51:K51"/>
-    <mergeCell ref="L51:O51"/>
-    <mergeCell ref="AF69:AI69"/>
-    <mergeCell ref="AJ69:AM69"/>
-    <mergeCell ref="AN69:AQ69"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="D64:G64"/>
-    <mergeCell ref="H64:K64"/>
-    <mergeCell ref="L64:O64"/>
-    <mergeCell ref="P64:S64"/>
-    <mergeCell ref="T64:W64"/>
-    <mergeCell ref="X64:AA64"/>
-    <mergeCell ref="AB64:AE64"/>
-    <mergeCell ref="AF64:AI64"/>
-    <mergeCell ref="AJ64:AM64"/>
-    <mergeCell ref="AN64:AQ64"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="D69:G69"/>
-    <mergeCell ref="H69:K69"/>
-    <mergeCell ref="L69:O69"/>
-    <mergeCell ref="L60:O60"/>
-    <mergeCell ref="P60:S60"/>
-    <mergeCell ref="AJ51:AM51"/>
-    <mergeCell ref="AN51:AQ51"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:G56"/>
-    <mergeCell ref="H56:K56"/>
-    <mergeCell ref="L56:O56"/>
-    <mergeCell ref="P56:S56"/>
-    <mergeCell ref="T56:W56"/>
-    <mergeCell ref="X56:AA56"/>
-    <mergeCell ref="AB56:AE56"/>
-    <mergeCell ref="AF56:AI56"/>
-    <mergeCell ref="AJ56:AM56"/>
-    <mergeCell ref="AN56:AQ56"/>
-    <mergeCell ref="P51:S51"/>
-    <mergeCell ref="T51:W51"/>
-    <mergeCell ref="X51:AA51"/>
-    <mergeCell ref="AB51:AE51"/>
-    <mergeCell ref="AF51:AI51"/>
-    <mergeCell ref="AN60:AQ60"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:G35"/>
-    <mergeCell ref="H35:K35"/>
-    <mergeCell ref="L35:O35"/>
-    <mergeCell ref="P35:S35"/>
-    <mergeCell ref="T35:W35"/>
-    <mergeCell ref="X35:AA35"/>
-    <mergeCell ref="AB35:AE35"/>
-    <mergeCell ref="AF35:AI35"/>
-    <mergeCell ref="AJ35:AM35"/>
-    <mergeCell ref="AN35:AQ35"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="H39:K39"/>
-    <mergeCell ref="L39:O39"/>
-    <mergeCell ref="T60:W60"/>
-    <mergeCell ref="X60:AA60"/>
-    <mergeCell ref="AB60:AE60"/>
-    <mergeCell ref="AF60:AI60"/>
-    <mergeCell ref="AJ60:AM60"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:G60"/>
-    <mergeCell ref="H60:K60"/>
-    <mergeCell ref="AJ39:AM39"/>
-    <mergeCell ref="AN39:AQ39"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:G43"/>
-    <mergeCell ref="H43:K43"/>
-    <mergeCell ref="L43:O43"/>
-    <mergeCell ref="P43:S43"/>
-    <mergeCell ref="T43:W43"/>
-    <mergeCell ref="X43:AA43"/>
-    <mergeCell ref="AB43:AE43"/>
-    <mergeCell ref="AF43:AI43"/>
-    <mergeCell ref="AJ43:AM43"/>
-    <mergeCell ref="AN43:AQ43"/>
-    <mergeCell ref="P39:S39"/>
-    <mergeCell ref="T39:W39"/>
-    <mergeCell ref="X39:AA39"/>
-    <mergeCell ref="AB39:AE39"/>
-    <mergeCell ref="AF39:AI39"/>
-    <mergeCell ref="AN47:AQ47"/>
-    <mergeCell ref="T47:W47"/>
-    <mergeCell ref="X47:AA47"/>
-    <mergeCell ref="AB47:AE47"/>
-    <mergeCell ref="AF47:AI47"/>
-    <mergeCell ref="AJ47:AM47"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:G47"/>
-    <mergeCell ref="H47:K47"/>
-    <mergeCell ref="L47:O47"/>
-    <mergeCell ref="P47:S47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4517,7 +4512,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4529,7 +4524,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
